--- a/posts100_tagged_with_GPT4_with_ImagePostsCount.xlsx
+++ b/posts100_tagged_with_GPT4_with_ImagePostsCount.xlsx
@@ -1,20 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yuval\OneDrive\Documents\master\Second year\אפיון התנהגות אנושית מנתוני אינטרנט\reddit_data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E9840E0-9638-44C9-9F25-2C79F3BDC117}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="sport and art users posts" sheetId="1" r:id="rId1"/>
+    <sheet name="only art users posts" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1185" uniqueCount="863">
   <si>
     <t>User</t>
   </si>
@@ -1628,15 +1635,1589 @@
   <si>
     <t>The author is creating art out of love and enjoyment.</t>
   </si>
+  <si>
+    <t>Art Post url</t>
+  </si>
+  <si>
+    <t>1fi0ga8</t>
+  </si>
+  <si>
+    <t>Faintly-Painterly</t>
+  </si>
+  <si>
+    <t>The more I paint traditionally the less I want to paint digitally</t>
+  </si>
+  <si>
+    <t>Lately I've been doing a lot of acrylic paintings on canvas and wood, and honestly as I get my bearings with it I'm really starting to like it more than digital. There's just something that feels really nice about actually being able to hold it and feel the paint and look at the brush strokes under a magnifying glass. It's also kinda nice to know that AI will never be able to negatively impact the value and demand for real paintings.
+I was going to buy a fancier drawing tablet, but now I think I might just use that money to buy nicer paint and other such things. I'm curious if anyone else has or is considering jumping ship.</t>
+  </si>
+  <si>
+    <t>General Discussion</t>
+  </si>
+  <si>
+    <t>The more I paint traditionally the less I want to paint digitally Lately I've been doing a lot of acrylic paintings on canvas and wood, and honestly as I get my bearings with it I'm really starting to like it more than digital. There's just something that feels really nice about actually being able to hold it and feel the paint and look at the brush strokes under a magnifying glass. It's also kinda nice to know that AI will never be able to negatively impact the value and demand for real paintings.
+I was going to buy a fancier drawing tablet, but now I think I might just use that money to buy nicer paint and other such things. I'm curious if anyone else has or is considering jumping ship.</t>
+  </si>
+  <si>
+    <t>https://www.reddit.com/r/ArtistLounge/comments/1fi0ga8/the_more_i_paint_traditionally_the_less_i_want_to/ Lately I've been doing a lot of acrylic paintings on canvas and wood, and honestly as I get my bearings with it I'm really starting to like it more than digital. There's just something that feels really nice about actually being able to hold it and feel the paint and look at the brush strokes under a magnifying glass. It's also kinda nice to know that AI will never be able to negatively impact the value and demand for real paintings.
+I was going to buy a fancier drawing tablet, but now I think I might just use that money to buy nicer paint and other such things. I'm curious if anyone else has or is considering jumping ship.</t>
+  </si>
+  <si>
+    <t>The author actively engages in traditional art and is considering investing more.</t>
+  </si>
+  <si>
+    <t>The author enjoys painting and finds more satisfaction in traditional methods.</t>
+  </si>
+  <si>
+    <t>1ec2ef3</t>
+  </si>
+  <si>
+    <t>GPsyc19</t>
+  </si>
+  <si>
+    <t>My editor loves it.  77 agents rejected it.</t>
+  </si>
+  <si>
+    <t>UPDATES:
+Thanks for all your responses – I feel validated and encouraged.  Here are the answers to a few of the common questions, and some updates with my plans:
+1. My editor was referred to me by my first choice editor (who was not available to take on new projects at the time).  The editor I ended up working with is a published author and developmental editor.  While he provided me with those compliments you read, he also provided me with 5 pages of constructive feedback on areas such as plotting, characterization, pacing, voice, and theme.  Additionally, he embedded comments directly onto my Word doc throughout the story.  Perhaps his biggest limitation was that he specializes in sci-fi/fantasy, while my story is a mystery.  He was transparent about this from the start, but I agreed to work with him and for the most part found his feedback helpful.  My inkling is perhaps an editor who specializes in the mystery/suspense genre could have been more thorough or commented more directly on the marketability of my novel.
+2.  I got some brief feedback from the agents who requested (but ultimately rejected) my novel.  I don’t see enough of a pattern to be helpful but you can decide for yourself.  Below are summaries of the responses or direct quotes (if I had saved them) :
+Agent 1 - didn't connect to characters as much as she liked
+Agent 2 -  does not seem to be the best fit for my list
+Agent 3 - “The tension in the first chapter really drew me in, and I see so much potential here, but I didn’t feel as passionately engaged with the story progression as I’d hoped. I think the shifting points of view may be affecting the pacing for me"
+Agent 4 – “I’m afraid the novel is not for me. I liked portions of it very much, but none of the three protagonists stood out enough to really draw me in”
+Agent 5 – “I found a lot to like here, and appreciated the themes present in your chapters. In the end, however, I must admit that I wasn’t connecting quite strongly enough with the material to feel I could offer representation.
+3.  My plans moving forward: This novel is book one of a trilogy.  I’m knee-deep in book two (about halfway through the first draft) and loving it!!  I don’t know if I’ve really improved my craft with more writing experience, or I’m just enjoying the writing process more than getting nowhere with marketing.  I am putting book one to rest for NOW while I finish book two . My goal is to be published, whether traditionally or self-published, by August 2025.  Now it’s time for Gelise Pearl (my penname) to get started on that author website...
+Thanks again for all your insight.  When I become a super famous all-time best seller (OR just a published author with a modest fan base 😂) you can tell your friends you were a part of my journey.
+ORIGINAL POST:
+Greetings writers near and far!
+I finished my first novel a few years ago and have been marketing it off and on for quite some time.  It’s a mystery/suspense novel told from the alternating POVs of three female best friends. Along with some constructive criticism, my professional editor (not my mom, not my spouse, etc.) made comments in his feedback such as:
+“Your book hooked me from the get-go.”
+“I think you did an excellent job…”
+“I found myself having to slow down, since I was supposed to be working on this manuscript, not just reading for fun…”
+These are direct quotes.  I may be a novice here, but I interpreted this as evidence that my story may have potential.  Dare I say, maybe even good?
+Fast forward a couple years later, after moderate revisions, additional feedback from my critique groups, and SEVENTY-SEVEN queries (yep, I track them on a spreadsheet), I have yet to find an agent.  Roughly half of the responses are rejections, a little less than half are no responses, and a total of six agents requested to read more. Only to ultimately pass.
+So my dilemma here can perhaps be summed up in two words: Now what?
+1.  Second opinion time?  Hire another editor?
+2.  Self-publish (I’m not against this)
+3.  Give up (I am against this)
+4.  Keep on querying?  What’s that thing called when you try the same thing over and over again and expect different results?
+Thanks in advance for any insight.
+Sincerely,
+An Insane Writer  :-)</t>
+  </si>
+  <si>
+    <t>My editor loves it.  77 agents rejected it. UPDATES:
+Thanks for all your responses – I feel validated and encouraged.  Here are the answers to a few of the common questions, and some updates with my plans:
+1. My editor was referred to me by my first choice editor (who was not available to take on new projects at the time).  The editor I ended up working with is a published author and developmental editor.  While he provided me with those compliments you read, he also provided me with 5 pages of constructive feedback on areas such as plotting, characterization, pacing, voice, and theme.  Additionally, he embedded comments directly onto my Word doc throughout the story.  Perhaps his biggest limitation was that he specializes in sci-fi/fantasy, while my story is a mystery.  He was transparent about this from the start, but I agreed to work with him and for the most part found his feedback helpful.  My inkling is perhaps an editor who specializes in the mystery/suspense genre could have been more thorough or commented more directly on the marketability of my novel.
+2.  I got some brief feedback from the agents who requested (but ultimately rejected) my novel.  I don’t see enough of a pattern to be helpful but you can decide for yourself.  Below are summaries of the responses or direct quotes (if I had saved them) :
+Agent 1 - didn't connect to characters as much as she liked
+Agent 2 -  does not seem to be the best fit for my list
+Agent 3 - “The tension in the first chapter really drew me in, and I see so much potential here, but I didn’t feel as passionately engaged with the story progression as I’d hoped. I think the shifting points of view may be affecting the pacing for me"
+Agent 4 – “I’m afraid the novel is not for me. I liked portions of it very much, but none of the three protagonists stood out enough to really draw me in”
+Agent 5 – “I found a lot to like here, and appreciated the themes present in your chapters. In the end, however, I must admit that I wasn’t connecting quite strongly enough with the material to feel I could offer representation.
+3.  My plans moving forward: This novel is book one of a trilogy.  I’m knee-deep in book two (about halfway through the first draft) and loving it!!  I don’t know if I’ve really improved my craft with more writing experience, or I’m just enjoying the writing process more than getting nowhere with marketing.  I am putting book one to rest for NOW while I finish book two . My goal is to be published, whether traditionally or self-published, by August 2025.  Now it’s time for Gelise Pearl (my penname) to get started on that author website...
+Thanks again for all your insight.  When I become a super famous all-time best seller (OR just a published author with a modest fan base 😂) you can tell your friends you were a part of my journey.
+ORIGINAL POST:
+Greetings writers near and far!
+I finished my first novel a few years ago and have been marketing it off and on for quite some time.  It’s a mystery/suspense novel told from the alternating POVs of three female best friends. Along with some constructive criticism, my professional editor (not my mom, not my spouse, etc.) made comments in his feedback such as:
+“Your book hooked me from the get-go.”
+“I think you did an excellent job…”
+“I found myself having to slow down, since I was supposed to be working on this manuscript, not just reading for fun…”
+These are direct quotes.  I may be a novice here, but I interpreted this as evidence that my story may have potential.  Dare I say, maybe even good?
+Fast forward a couple years later, after moderate revisions, additional feedback from my critique groups, and SEVENTY-SEVEN queries (yep, I track them on a spreadsheet), I have yet to find an agent.  Roughly half of the responses are rejections, a little less than half are no responses, and a total of six agents requested to read more. Only to ultimately pass.
+So my dilemma here can perhaps be summed up in two words: Now what?
+1.  Second opinion time?  Hire another editor?
+2.  Self-publish (I’m not against this)
+3.  Give up (I am against this)
+4.  Keep on querying?  What’s that thing called when you try the same thing over and over again and expect different results?
+Thanks in advance for any insight.
+Sincerely,
+An Insane Writer  :-)</t>
+  </si>
+  <si>
+    <t>The author is actively writing, seeking feedback and making plans for future work.</t>
+  </si>
+  <si>
+    <t>Multiple rejections and constructive criticism indicate a challenging creation process.</t>
+  </si>
+  <si>
+    <t>1atalhc</t>
+  </si>
+  <si>
+    <t>yevvieart</t>
+  </si>
+  <si>
+    <t>PSA: Reddit AI deal going through</t>
+  </si>
+  <si>
+    <t>[https://www.theverge.com/2024/2/17/24075670/reddit-ai-training-license-deal-user-content](https://www.theverge.com/2024/2/17/24075670/reddit-ai-training-license-deal-user-content)
+Our data, including our art, soon will be used for training. That + another awful redesign, I'm considering leaving after all these years, probably fully migrating to bluesky.
+&amp;#x200B;
+I'm extremely disappointed, what are your thoughts?
+&amp;#x200B;</t>
+  </si>
+  <si>
+    <t>News/Articles</t>
+  </si>
+  <si>
+    <t>PSA: Reddit AI deal going through [https://www.theverge.com/2024/2/17/24075670/reddit-ai-training-license-deal-user-content](https://www.theverge.com/2024/2/17/24075670/reddit-ai-training-license-deal-user-content)
+Our data, including our art, soon will be used for training. That + another awful redesign, I'm considering leaving after all these years, probably fully migrating to bluesky.
+&amp;#x200B;
+I'm extremely disappointed, what are your thoughts?
+&amp;#x200B;</t>
+  </si>
+  <si>
+    <t>https://www.reddit.com/r/ArtistLounge/comments/1atalhc/psa_reddit_ai_deal_going_through/ [https://www.theverge.com/2024/2/17/24075670/reddit-ai-training-license-deal-user-content](https://www.theverge.com/2024/2/17/24075670/reddit-ai-training-license-deal-user-content)
+Our data, including our art, soon will be used for training. That + another awful redesign, I'm considering leaving after all these years, probably fully migrating to bluesky.
+&amp;#x200B;
+I'm extremely disappointed, what are your thoughts?
+&amp;#x200B;</t>
+  </si>
+  <si>
+    <t>The author shares displeasure and considers leaving the platform.</t>
+  </si>
+  <si>
+    <t>Post focuses on social issues, not personal creation experience.</t>
+  </si>
+  <si>
+    <t>1f2fxqg</t>
+  </si>
+  <si>
+    <t>phthalodragon</t>
+  </si>
+  <si>
+    <t>Art Supply Sins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Come, confess your art supply sins! What product did you absolutely have to have, and then once you got it you never really ended up using?
+I’ll go first. For me, it’s markers, specifically Copic Sketch and Prismacolor Premier markers. I was so excited to finally get ahold of them…and then I got into Procreate. Now they sit in the back of a drawer collecting dust. </t>
+  </si>
+  <si>
+    <t>Medium/Materials</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Art Supply Sins Come, confess your art supply sins! What product did you absolutely have to have, and then once you got it you never really ended up using?
+I’ll go first. For me, it’s markers, specifically Copic Sketch and Prismacolor Premier markers. I was so excited to finally get ahold of them…and then I got into Procreate. Now they sit in the back of a drawer collecting dust. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.reddit.com/r/ArtistLounge/comments/1f2fxqg/art_supply_sins/ Come, confess your art supply sins! What product did you absolutely have to have, and then once you got it you never really ended up using?
+I’ll go first. For me, it’s markers, specifically Copic Sketch and Prismacolor Premier markers. I was so excited to finally get ahold of them…and then I got into Procreate. Now they sit in the back of a drawer collecting dust. </t>
+  </si>
+  <si>
+    <t>The author uses Procreate and has experience with other art supplies.</t>
+  </si>
+  <si>
+    <t>The author shows interest but no difficulty or pain in creation.</t>
+  </si>
+  <si>
+    <t>1fdy33u</t>
+  </si>
+  <si>
+    <t>princentt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as artists, do you mind being recommissioned multiple times by the same person? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Im an anxious guy but I found an artist I really love and want to ask for a 3rd commission. I’ll pay what is needed without a second thought. However, I’m worried that I’m annoying them by coming back again. Do you find returning clients annoying sometimes? 
+Edit: lol I didn’t expect this post to get this many replies but thanks, I appreciate all the reassurance :) </t>
+  </si>
+  <si>
+    <t>General Question</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as artists, do you mind being recommissioned multiple times by the same person?  Im an anxious guy but I found an artist I really love and want to ask for a 3rd commission. I’ll pay what is needed without a second thought. However, I’m worried that I’m annoying them by coming back again. Do you find returning clients annoying sometimes? 
+Edit: lol I didn’t expect this post to get this many replies but thanks, I appreciate all the reassurance :) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.reddit.com/r/ArtistLounge/comments/1fdy33u/as_artists_do_you_mind_being_recommissioned/ Im an anxious guy but I found an artist I really love and want to ask for a 3rd commission. I’ll pay what is needed without a second thought. However, I’m worried that I’m annoying them by coming back again. Do you find returning clients annoying sometimes? 
+Edit: lol I didn’t expect this post to get this many replies but thanks, I appreciate all the reassurance :) </t>
+  </si>
+  <si>
+    <t>The author has commissioned multiple artworks and plans for more.</t>
+  </si>
+  <si>
+    <t>The author is anxious but willing to pay for commissions.</t>
+  </si>
+  <si>
+    <t>1fjnw52</t>
+  </si>
+  <si>
+    <t>semlaaddict</t>
+  </si>
+  <si>
+    <t>🙃</t>
+  </si>
+  <si>
+    <t>Spotted this on Threads. Imagine dedicating years of your life to research, sacrificing career development opportunities outside of academia, and still being reduced to "spent a bunch of time at school and wrote a long paper." Humility doesn’t mean you have to downplay your accomplishments—or someone else’s, in this context.</t>
+  </si>
+  <si>
+    <t>🙃 Spotted this on Threads. Imagine dedicating years of your life to research, sacrificing career development opportunities outside of academia, and still being reduced to "spent a bunch of time at school and wrote a long paper." Humility doesn’t mean you have to downplay your accomplishments—or someone else’s, in this context.</t>
+  </si>
+  <si>
+    <t>https://i.redd.it/9ll9vgi43jpd1.jpeg Spotted this on Threads. Imagine dedicating years of your life to research, sacrificing career development opportunities outside of academia, and still being reduced to "spent a bunch of time at school and wrote a long paper." Humility doesn’t mean you have to downplay your accomplishments—or someone else’s, in this context.</t>
+  </si>
+  <si>
+    <t>Author seems to have dedicated years on research and academic work.</t>
+  </si>
+  <si>
+    <t>The author mentions years of sacrifice and career development opportunities lost.</t>
+  </si>
+  <si>
+    <t>1gt0x3s</t>
+  </si>
+  <si>
+    <t>Grape-panta-</t>
+  </si>
+  <si>
+    <t>Advice for saving alcohol markers?</t>
+  </si>
+  <si>
+    <t>I started coloring in a drawing of mine and the color I was using started to die out. I don't have a shade to color-match, and I really don't want the drawing to go to waste!</t>
+  </si>
+  <si>
+    <t>Advice for saving alcohol markers? I started coloring in a drawing of mine and the color I was using started to die out. I don't have a shade to color-match, and I really don't want the drawing to go to waste!</t>
+  </si>
+  <si>
+    <t>https://www.reddit.com/r/arttools/comments/1gt0x3s/advice_for_saving_alcohol_markers/ I started coloring in a drawing of mine and the color I was using started to die out. I don't have a shade to color-match, and I really don't want the drawing to go to waste!</t>
+  </si>
+  <si>
+    <t>The author is actively engaged in the process of creating art.</t>
+  </si>
+  <si>
+    <t>Author struggles with maintaining tools, potentially interrupting creative process.</t>
+  </si>
+  <si>
+    <t>1g5x2vz</t>
+  </si>
+  <si>
+    <t>Groggy_Doggy</t>
+  </si>
+  <si>
+    <t>Chaps, thanks so much, I’ve followed your feedback and have managed to paint this</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thanks so much for all the feedback on my previous post! I have followed the advice of being better with planning out my planes of initial colour layers which has resulted in a much more consistent and angular look which I wanted.
+Also used a bigger brush, more water and also doing less details in certain areas. 
+ Unfortunately, chaps, I may have gotten overly excited again with my coloured pencils when I was adding the ‘small’ ‘finishing’ details as I didn’t want to go overboard with watercolour details… and ended up overworking it again in coloured pencils. Feel like a crook posting this here as it’s only 65 % watercolour 
+Next time I’ll do more detailing with watercolours and see if I can get the balance right. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chaps, thanks so much, I’ve followed your feedback and have managed to paint this Thanks so much for all the feedback on my previous post! I have followed the advice of being better with planning out my planes of initial colour layers which has resulted in a much more consistent and angular look which I wanted.
+Also used a bigger brush, more water and also doing less details in certain areas. 
+ Unfortunately, chaps, I may have gotten overly excited again with my coloured pencils when I was adding the ‘small’ ‘finishing’ details as I didn’t want to go overboard with watercolour details… and ended up overworking it again in coloured pencils. Feel like a crook posting this here as it’s only 65 % watercolour 
+Next time I’ll do more detailing with watercolours and see if I can get the balance right. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://i.redd.it/dlden8cevcvd1.jpeg Thanks so much for all the feedback on my previous post! I have followed the advice of being better with planning out my planes of initial colour layers which has resulted in a much more consistent and angular look which I wanted.
+Also used a bigger brush, more water and also doing less details in certain areas. 
+ Unfortunately, chaps, I may have gotten overly excited again with my coloured pencils when I was adding the ‘small’ ‘finishing’ details as I didn’t want to go overboard with watercolour details… and ended up overworking it again in coloured pencils. Feel like a crook posting this here as it’s only 65 % watercolour 
+Next time I’ll do more detailing with watercolours and see if I can get the balance right. </t>
+  </si>
+  <si>
+    <t>The author actively applies feedback, recognizes mistakes, and plans future improvements.</t>
+  </si>
+  <si>
+    <t>Author struggles with balancing different techniques and overworks their art.</t>
+  </si>
+  <si>
+    <t>1gkry7v</t>
+  </si>
+  <si>
+    <t>CleanComplex8229</t>
+  </si>
+  <si>
+    <t>Are we screwed?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Immigrant PhD here. I’m from Mexico and I’m doing my PhD in biology at Caltech. With this Trump victory, I’m suddenly terrified it’s going to be much more difficult to find a job after graduating. I know it’s hard to predict the future, but how screwed do you guys think we are in terms of H-1B visa? </t>
+  </si>
+  <si>
+    <t>Need Advice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Are we screwed? Immigrant PhD here. I’m from Mexico and I’m doing my PhD in biology at Caltech. With this Trump victory, I’m suddenly terrified it’s going to be much more difficult to find a job after graduating. I know it’s hard to predict the future, but how screwed do you guys think we are in terms of H-1B visa? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.reddit.com/r/PhD/comments/1gkry7v/are_we_screwed/ Immigrant PhD here. I’m from Mexico and I’m doing my PhD in biology at Caltech. With this Trump victory, I’m suddenly terrified it’s going to be much more difficult to find a job after graduating. I know it’s hard to predict the future, but how screwed do you guys think we are in terms of H-1B visa? </t>
+  </si>
+  <si>
+    <t>Author is studying, but there is concern over job prospects.</t>
+  </si>
+  <si>
+    <t>The author is talking about job prospects, not creating art.</t>
+  </si>
+  <si>
+    <t>1d9k7nf</t>
+  </si>
+  <si>
+    <t>Chickenbones369</t>
+  </si>
+  <si>
+    <t>Needing help finding a specific type of paper that can be permanently affixed to wood with glue and will grip firmly.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I do woodwork that's something akin to sculpting and carving (mainly abstract statuettes, fetishes, figurines, etc...). They're intricate, and as such hard to draw directly on to the wood. I need a paper that's thin enough to trace through so that I can mirror the designs clearly front to back (for the general blocking in to keep things lined up). For a while I was using those white pharmacy bags but they changed the paper on me. I was using them in conjunction with glue sticks and it worked great, the paper never tore or detached it's self, just practically binded with the wood to the point of having to be sanded off in parts. I've tried 25lb tracing paper and 57lb tracing paper, once found a very thin tissue like paper but it tore when I attempted to draw on it and once glued it just sort of melted.  
+The issue I'm having is it's all smooth paper or waxy, parchment has the same issues. (The paper they now use for the bags is also smooth.) I need a paper that is just translucent enough to see my lines through, it doesn't need to be nearly as transparent as actual tracing paper. It also needs to have more texture but be somewhat soft or absorbent so the glue will set into it. 
+(I've tried transfer/ graphite paper, it's not for me. Need to be able to see what I'm doing and if I mess up its a pain to remove such dark lines.) 
+I would appreciate other ideas as well, I'm not married to the concept as I like trying new things when the need arises. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Needing help finding a specific type of paper that can be permanently affixed to wood with glue and will grip firmly. I do woodwork that's something akin to sculpting and carving (mainly abstract statuettes, fetishes, figurines, etc...). They're intricate, and as such hard to draw directly on to the wood. I need a paper that's thin enough to trace through so that I can mirror the designs clearly front to back (for the general blocking in to keep things lined up). For a while I was using those white pharmacy bags but they changed the paper on me. I was using them in conjunction with glue sticks and it worked great, the paper never tore or detached it's self, just practically binded with the wood to the point of having to be sanded off in parts. I've tried 25lb tracing paper and 57lb tracing paper, once found a very thin tissue like paper but it tore when I attempted to draw on it and once glued it just sort of melted.  
+The issue I'm having is it's all smooth paper or waxy, parchment has the same issues. (The paper they now use for the bags is also smooth.) I need a paper that is just translucent enough to see my lines through, it doesn't need to be nearly as transparent as actual tracing paper. It also needs to have more texture but be somewhat soft or absorbent so the glue will set into it. 
+(I've tried transfer/ graphite paper, it's not for me. Need to be able to see what I'm doing and if I mess up its a pain to remove such dark lines.) 
+I would appreciate other ideas as well, I'm not married to the concept as I like trying new things when the need arises. </t>
+  </si>
+  <si>
+    <t>Actively seeking advice and solutions to improve their work.</t>
+  </si>
+  <si>
+    <t>Author struggles with finding the right materials and faces difficulties in execution.</t>
+  </si>
+  <si>
+    <t>1goybl9</t>
+  </si>
+  <si>
+    <t>Wanderingcreative1</t>
+  </si>
+  <si>
+    <t>[Self] My first sculpture project - update</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I wanted to say thank you for all of the advice given and share an update on my first sculpture project. 
+I'm happy with the progress, but I still have a bit to finish the tree before moving on to the rest of this “Middle Earth”-inspired room!
+My kids can't hardly wait for it all to be done.❤️🌳
+I didn’t know much going in and likely would’ve chosen different materials to construct the tree. I made a wooden armature secured to the wall studs, chicken wire, spray foam, and then plaster (dipped paper towels and burlap for the desired texture). As suggested by another Reddit user, to add durability, I sealed it all with a mastic air duct sealant. 
+The roots had a bit too much give, so I added cut pieces of interlocking foam tiles (the kind used in kids' rooms or home gyms) underneath each root. This helped absorb any shock or movement, and after thick coats of the mastic sealant, they have now survived my 6-year-old climbing and jumping off of them! 
+Right now, the plan is to use insulation foam to create faux stone and other elven architectural elements on the walls surrounding the tree (the daughter wants an elven princess castle). 
+We will replace the guard rails with a thick plexiglass “window.” To achieve a stained-glass look, they will either be painted or a window cling will be used. 
+I’m still conceptualizing the design for under the beds, but the closet will be moved, and beanbags will be added for a reading nook/play area. 
+</t>
+  </si>
+  <si>
+    <t>Self (WIP)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Self] My first sculpture project - update I wanted to say thank you for all of the advice given and share an update on my first sculpture project. 
+I'm happy with the progress, but I still have a bit to finish the tree before moving on to the rest of this “Middle Earth”-inspired room!
+My kids can't hardly wait for it all to be done.❤️🌳
+I didn’t know much going in and likely would’ve chosen different materials to construct the tree. I made a wooden armature secured to the wall studs, chicken wire, spray foam, and then plaster (dipped paper towels and burlap for the desired texture). As suggested by another Reddit user, to add durability, I sealed it all with a mastic air duct sealant. 
+The roots had a bit too much give, so I added cut pieces of interlocking foam tiles (the kind used in kids' rooms or home gyms) underneath each root. This helped absorb any shock or movement, and after thick coats of the mastic sealant, they have now survived my 6-year-old climbing and jumping off of them! 
+Right now, the plan is to use insulation foam to create faux stone and other elven architectural elements on the walls surrounding the tree (the daughter wants an elven princess castle). 
+We will replace the guard rails with a thick plexiglass “window.” To achieve a stained-glass look, they will either be painted or a window cling will be used. 
+I’m still conceptualizing the design for under the beds, but the closet will be moved, and beanbags will be added for a reading nook/play area. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://i.redd.it/giobwrny8b0e1.jpeg I wanted to say thank you for all of the advice given and share an update on my first sculpture project. 
+I'm happy with the progress, but I still have a bit to finish the tree before moving on to the rest of this “Middle Earth”-inspired room!
+My kids can't hardly wait for it all to be done.❤️🌳
+I didn’t know much going in and likely would’ve chosen different materials to construct the tree. I made a wooden armature secured to the wall studs, chicken wire, spray foam, and then plaster (dipped paper towels and burlap for the desired texture). As suggested by another Reddit user, to add durability, I sealed it all with a mastic air duct sealant. 
+The roots had a bit too much give, so I added cut pieces of interlocking foam tiles (the kind used in kids' rooms or home gyms) underneath each root. This helped absorb any shock or movement, and after thick coats of the mastic sealant, they have now survived my 6-year-old climbing and jumping off of them! 
+Right now, the plan is to use insulation foam to create faux stone and other elven architectural elements on the walls surrounding the tree (the daughter wants an elven princess castle). 
+We will replace the guard rails with a thick plexiglass “window.” To achieve a stained-glass look, they will either be painted or a window cling will be used. 
+I’m still conceptualizing the design for under the beds, but the closet will be moved, and beanbags will be added for a reading nook/play area. 
+</t>
+  </si>
+  <si>
+    <t>The author is actively working on and improving a complex project.</t>
+  </si>
+  <si>
+    <t>First project, learning new techniques, extensive planning and adjustments.</t>
+  </si>
+  <si>
+    <t>1gnwt52</t>
+  </si>
+  <si>
+    <t>No_Season_8848</t>
+  </si>
+  <si>
+    <t>[self] I made a head sculpture last month</t>
+  </si>
+  <si>
+    <t>Hi, this is Chi and I am new to this community. This is a head sculpture I made last month, and I made a couple of resin copies</t>
+  </si>
+  <si>
+    <t>[self] I made a head sculpture last month Hi, this is Chi and I am new to this community. This is a head sculpture I made last month, and I made a couple of resin copies</t>
+  </si>
+  <si>
+    <t>https://www.reddit.com/gallery/1gnwt52 Hi, this is Chi and I am new to this community. This is a head sculpture I made last month, and I made a couple of resin copies</t>
+  </si>
+  <si>
+    <t>Author mentions creating a sculpture and multiple resin copies.</t>
+  </si>
+  <si>
+    <t>Author seems experienced and doesn't express any difficulty.</t>
+  </si>
+  <si>
+    <t>1aj13pb</t>
+  </si>
+  <si>
+    <t>SSgtPieGuy</t>
+  </si>
+  <si>
+    <t>A worrying trend I've seen on this subreddit</t>
+  </si>
+  <si>
+    <t>I've noticed that a lot of recent posts on this reddit have been very negative-- either filled with demotivation (an understandable feeling--I've been there) or with a highly defeatist tone. I'm not criticizing folk for feeling down--that's often out of their control. I just worry that this sub will become a feedback loop that only enhances people's negative thoughts.</t>
+  </si>
+  <si>
+    <t>A worrying trend I've seen on this subreddit I've noticed that a lot of recent posts on this reddit have been very negative-- either filled with demotivation (an understandable feeling--I've been there) or with a highly defeatist tone. I'm not criticizing folk for feeling down--that's often out of their control. I just worry that this sub will become a feedback loop that only enhances people's negative thoughts.</t>
+  </si>
+  <si>
+    <t>https://www.reddit.com/r/ArtistLounge/comments/1aj13pb/a_worrying_trend_ive_seen_on_this_subreddit/ I've noticed that a lot of recent posts on this reddit have been very negative-- either filled with demotivation (an understandable feeling--I've been there) or with a highly defeatist tone. I'm not criticizing folk for feeling down--that's often out of their control. I just worry that this sub will become a feedback loop that only enhances people's negative thoughts.</t>
+  </si>
+  <si>
+    <t>Post discusses observations but doesn't indicate personal productivity.</t>
+  </si>
+  <si>
+    <t>Author expresses concern about negativity but doesn't mention personal difficulty in creating.</t>
+  </si>
+  <si>
+    <t>1b3xs6z</t>
+  </si>
+  <si>
+    <t>WakingNightmare5023</t>
+  </si>
+  <si>
+    <t>My editor ghosted me</t>
+  </si>
+  <si>
+    <t>I pitched an article and had it commissioned. I conducted interviews. I traveled to a different city. I submitted the article 3 weeks ago and it still hasn't run. It was originally pitched as a Black History Month piece, well that angle is dead.
+I've emailed my editor multiple times asking about date of publication or if they've decided to kill the piece for whatever reason. I've received no response. I feel so insane watching her tweet all of the other articles that are going up on the site while just ignoring me and not responding to or explaining anything.
+I don't understand why people behave in this way. 
+Edit to add update: She finally responded, and the article was published. You can find the update on my profile.</t>
+  </si>
+  <si>
+    <t>Rant</t>
+  </si>
+  <si>
+    <t>My editor ghosted me I pitched an article and had it commissioned. I conducted interviews. I traveled to a different city. I submitted the article 3 weeks ago and it still hasn't run. It was originally pitched as a Black History Month piece, well that angle is dead.
+I've emailed my editor multiple times asking about date of publication or if they've decided to kill the piece for whatever reason. I've received no response. I feel so insane watching her tweet all of the other articles that are going up on the site while just ignoring me and not responding to or explaining anything.
+I don't understand why people behave in this way. 
+Edit to add update: She finally responded, and the article was published. You can find the update on my profile.</t>
+  </si>
+  <si>
+    <t>https://www.reddit.com/r/freelanceWriters/comments/1b3xs6z/my_editor_ghosted_me/ I pitched an article and had it commissioned. I conducted interviews. I traveled to a different city. I submitted the article 3 weeks ago and it still hasn't run. It was originally pitched as a Black History Month piece, well that angle is dead.
+I've emailed my editor multiple times asking about date of publication or if they've decided to kill the piece for whatever reason. I've received no response. I feel so insane watching her tweet all of the other articles that are going up on the site while just ignoring me and not responding to or explaining anything.
+I don't understand why people behave in this way. 
+Edit to add update: She finally responded, and the article was published. You can find the update on my profile.</t>
+  </si>
+  <si>
+    <t>Author conducted interviews, traveled, and wrote an article.</t>
+  </si>
+  <si>
+    <t>Article creation involves travel, interviews, and unresponsiveness from editor.</t>
+  </si>
+  <si>
+    <t>1gm7ckt</t>
+  </si>
+  <si>
+    <t>princessllamacorn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I successfully defended my dissertation today! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Omg, this doctoral process has been long! I began my program in 2018. Overall the experience has been great. Phenomenal faculty in the program. I love my cohort. We genuinely root for and support one another. I love my advisor. My committee members were amazing. I can only say good things. And I am so happy to be on the other side of this defense. I hope I have the best sleep tonight!! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I successfully defended my dissertation today!  Omg, this doctoral process has been long! I began my program in 2018. Overall the experience has been great. Phenomenal faculty in the program. I love my cohort. We genuinely root for and support one another. I love my advisor. My committee members were amazing. I can only say good things. And I am so happy to be on the other side of this defense. I hope I have the best sleep tonight!! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.reddit.com/r/PhD/comments/1gm7ckt/i_successfully_defended_my_dissertation_today/ Omg, this doctoral process has been long! I began my program in 2018. Overall the experience has been great. Phenomenal faculty in the program. I love my cohort. We genuinely root for and support one another. I love my advisor. My committee members were amazing. I can only say good things. And I am so happy to be on the other side of this defense. I hope I have the best sleep tonight!! </t>
+  </si>
+  <si>
+    <t>The author has successfully completed their doctoral dissertation.</t>
+  </si>
+  <si>
+    <t>The author mentions the doctoral process was long.</t>
+  </si>
+  <si>
+    <t>1g1ti42</t>
+  </si>
+  <si>
+    <t>BigBingus72</t>
+  </si>
+  <si>
+    <t>I can’t be the only one who wishes music composition schools leaned more into tonal styles</t>
+  </si>
+  <si>
+    <t>You can take this with a grain of salt, as I’m someone who never went to school for music, though I make my living composing music for media as well as royalties from my self published works:
+I find music academia’s focus on atonal works incredibly strange. I get the history and desire for innovation, but you’d think music schools would focus on teaching people how to compose music the average person would actually want to give the time of day to. I love myself some Stravinsky from time to time but I just don’t believe bright eyed young composers are going into music school with the initial hope to write weird shit almost no one wants to listen to. There’s IMO still a lot of innovation possible with traditional tonal music, and it just objectively sounds more pleasing to 99% of the population.
+The average high-academia music composition degree seems to focus on musical styles that have little to no viable career path beyond very niche applications or teaching. I was dating a woman who was in one of the highest esteemed composition programs in my country and she complained constantly about the musical direction it was pushing her towards.
+Am I an uneducated idiot here? I understand learning contemporary/atonal styles helps with composing tonal music as well, but I just can’t shake the feeling that music composition academia has become an elitist circlejerk of who can make the weirdest sounding music possible.
+Am I crazy?</t>
+  </si>
+  <si>
+    <t>I can’t be the only one who wishes music composition schools leaned more into tonal styles You can take this with a grain of salt, as I’m someone who never went to school for music, though I make my living composing music for media as well as royalties from my self published works:
+I find music academia’s focus on atonal works incredibly strange. I get the history and desire for innovation, but you’d think music schools would focus on teaching people how to compose music the average person would actually want to give the time of day to. I love myself some Stravinsky from time to time but I just don’t believe bright eyed young composers are going into music school with the initial hope to write weird shit almost no one wants to listen to. There’s IMO still a lot of innovation possible with traditional tonal music, and it just objectively sounds more pleasing to 99% of the population.
+The average high-academia music composition degree seems to focus on musical styles that have little to no viable career path beyond very niche applications or teaching. I was dating a woman who was in one of the highest esteemed composition programs in my country and she complained constantly about the musical direction it was pushing her towards.
+Am I an uneducated idiot here? I understand learning contemporary/atonal styles helps with composing tonal music as well, but I just can’t shake the feeling that music composition academia has become an elitist circlejerk of who can make the weirdest sounding music possible.
+Am I crazy?</t>
+  </si>
+  <si>
+    <t>https://www.reddit.com/r/composer/comments/1g1ti42/i_cant_be_the_only_one_who_wishes_music/ You can take this with a grain of salt, as I’m someone who never went to school for music, though I make my living composing music for media as well as royalties from my self published works:
+I find music academia’s focus on atonal works incredibly strange. I get the history and desire for innovation, but you’d think music schools would focus on teaching people how to compose music the average person would actually want to give the time of day to. I love myself some Stravinsky from time to time but I just don’t believe bright eyed young composers are going into music school with the initial hope to write weird shit almost no one wants to listen to. There’s IMO still a lot of innovation possible with traditional tonal music, and it just objectively sounds more pleasing to 99% of the population.
+The average high-academia music composition degree seems to focus on musical styles that have little to no viable career path beyond very niche applications or teaching. I was dating a woman who was in one of the highest esteemed composition programs in my country and she complained constantly about the musical direction it was pushing her towards.
+Am I an uneducated idiot here? I understand learning contemporary/atonal styles helps with composing tonal music as well, but I just can’t shake the feeling that music composition academia has become an elitist circlejerk of who can make the weirdest sounding music possible.
+Am I crazy?</t>
+  </si>
+  <si>
+    <t>The author makes a living composing music and has self-published works.</t>
+  </si>
+  <si>
+    <t>The author describes facing difficulties with the current academic approach to music composition.</t>
+  </si>
+  <si>
+    <t>1h3fvc4</t>
+  </si>
+  <si>
+    <t>OpalOnyxObsidian</t>
+  </si>
+  <si>
+    <t>My husband made a comment about this and now I don't know how I feel about it. Looking for constructive feedback.</t>
+  </si>
+  <si>
+    <t>My husband looked at this painting and said "it looks like a painting, not a photograph" but he couldn't elaborate on it. 
+I wasn't aiming for hyperrealism but I still wanted it to look good. 
+I would love some constructive criticism. Are my highlights too light? Should I glaze them?  This is acrylic on canvas 8x10"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brutal Critique </t>
+  </si>
+  <si>
+    <t>My husband made a comment about this and now I don't know how I feel about it. Looking for constructive feedback. My husband looked at this painting and said "it looks like a painting, not a photograph" but he couldn't elaborate on it. 
+I wasn't aiming for hyperrealism but I still wanted it to look good. 
+I would love some constructive criticism. Are my highlights too light? Should I glaze them?  This is acrylic on canvas 8x10"</t>
+  </si>
+  <si>
+    <t>https://www.reddit.com/gallery/1h3fvc4 My husband looked at this painting and said "it looks like a painting, not a photograph" but he couldn't elaborate on it. 
+I wasn't aiming for hyperrealism but I still wanted it to look good. 
+I would love some constructive criticism. Are my highlights too light? Should I glaze them?  This is acrylic on canvas 8x10"</t>
+  </si>
+  <si>
+    <t>Actively seeking feedback for improvement, shows engagement with their art.</t>
+  </si>
+  <si>
+    <t>Author seeks feedback, indicating struggle with technique and satisfaction.</t>
+  </si>
+  <si>
+    <t>1ehthrn</t>
+  </si>
+  <si>
+    <t>venusvile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I unironically love Tumblr </t>
+  </si>
+  <si>
+    <t xml:space="preserve">First off. I'm brand new to the art community and don't have art friends so the algorithm has buried me 6 feet under on everything... except Tumblr. I've gotten over 1500 total likes in my first week of having an account, versus genuine radio silence on literally every other social media. 
+I don't know how, but everyone on that website makes incredible art. It's possible that's just because most of the users tend to be older since it's popularity peaked in the 2010s, but I was so surprised to find some of the most jaw dropping beautiful art on there.
+I know Tumblr has a stigma in this year of 2024, but I thought I'd post this since it seems a lot of artists are looking to migrate off of the main socials. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I unironically love Tumblr  First off. I'm brand new to the art community and don't have art friends so the algorithm has buried me 6 feet under on everything... except Tumblr. I've gotten over 1500 total likes in my first week of having an account, versus genuine radio silence on literally every other social media. 
+I don't know how, but everyone on that website makes incredible art. It's possible that's just because most of the users tend to be older since it's popularity peaked in the 2010s, but I was so surprised to find some of the most jaw dropping beautiful art on there.
+I know Tumblr has a stigma in this year of 2024, but I thought I'd post this since it seems a lot of artists are looking to migrate off of the main socials. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.reddit.com/r/ArtistLounge/comments/1ehthrn/i_unironically_love_tumblr/ First off. I'm brand new to the art community and don't have art friends so the algorithm has buried me 6 feet under on everything... except Tumblr. I've gotten over 1500 total likes in my first week of having an account, versus genuine radio silence on literally every other social media. 
+I don't know how, but everyone on that website makes incredible art. It's possible that's just because most of the users tend to be older since it's popularity peaked in the 2010s, but I was so surprised to find some of the most jaw dropping beautiful art on there.
+I know Tumblr has a stigma in this year of 2024, but I thought I'd post this since it seems a lot of artists are looking to migrate off of the main socials. </t>
+  </si>
+  <si>
+    <t>The author is new but already has significant engagement on their art.</t>
+  </si>
+  <si>
+    <t>Enjoys making art and receives positive response.</t>
+  </si>
+  <si>
+    <t>1ad1d66</t>
+  </si>
+  <si>
+    <t>blackfoxglove</t>
+  </si>
+  <si>
+    <t>how long does it generally take to compose 10 minutes of music?</t>
+  </si>
+  <si>
+    <t>I'm an animation student, not a composer, and I got into contact with a composer through my teacher. I needed 10 minutes of music and gave him around 6 months to make it, but 8 months later he has only delivered 15 seconds of music. I know the amount of time required to compose music probably varies depending on the complexity and what you need, but I thought 6 months would be enough time to compose at least a rough version of something. So now I'm wondering whether or not I was unreasonable with my deadline. How long should 10 minutes generally take to compose?</t>
+  </si>
+  <si>
+    <t>how long does it generally take to compose 10 minutes of music? I'm an animation student, not a composer, and I got into contact with a composer through my teacher. I needed 10 minutes of music and gave him around 6 months to make it, but 8 months later he has only delivered 15 seconds of music. I know the amount of time required to compose music probably varies depending on the complexity and what you need, but I thought 6 months would be enough time to compose at least a rough version of something. So now I'm wondering whether or not I was unreasonable with my deadline. How long should 10 minutes generally take to compose?</t>
+  </si>
+  <si>
+    <t>https://www.reddit.com/r/composer/comments/1ad1d66/how_long_does_it_generally_take_to_compose_10/ I'm an animation student, not a composer, and I got into contact with a composer through my teacher. I needed 10 minutes of music and gave him around 6 months to make it, but 8 months later he has only delivered 15 seconds of music. I know the amount of time required to compose music probably varies depending on the complexity and what you need, but I thought 6 months would be enough time to compose at least a rough version of something. So now I'm wondering whether or not I was unreasonable with my deadline. How long should 10 minutes generally take to compose?</t>
+  </si>
+  <si>
+    <t>The composer hasn't delivered expected work in a given time.</t>
+  </si>
+  <si>
+    <t>Composer has taken 8 months to deliver 15 seconds of music.</t>
+  </si>
+  <si>
+    <t>1de2ks7</t>
+  </si>
+  <si>
+    <t>bouazaz05</t>
+  </si>
+  <si>
+    <t>Title: Looking for Budget Drawing Tablet Recommendations for 2D and 3D Design</t>
+  </si>
+  <si>
+    <t>Hi everyone,
+I’m looking to get into digital art and 3D design, and I’m in need of a budget-friendly drawing tablet. My primary use will be for 2D character and thumbnail design, as well as some 3D modeling for things like cars and other objects.
+What I’m looking for:
+	•	A budget-friendly tablet (under $100 or high if possible)
+	•	Suitable for both 2D and 3D design
+	•	Recommendations on software to use for 2D 
+	•	Any tips for a beginner in digital art and 3D modeling ( should I start for donuts tutorial)
+I’ve heard good things about Wacom, Huion, and XP-Pen, but I’m not sure which model would be best for my needs. Any advice or recommendations would be greatly appreciated!
+Thanks in advance!</t>
+  </si>
+  <si>
+    <t>Title: Looking for Budget Drawing Tablet Recommendations for 2D and 3D Design Hi everyone,
+I’m looking to get into digital art and 3D design, and I’m in need of a budget-friendly drawing tablet. My primary use will be for 2D character and thumbnail design, as well as some 3D modeling for things like cars and other objects.
+What I’m looking for:
+	•	A budget-friendly tablet (under $100 or high if possible)
+	•	Suitable for both 2D and 3D design
+	•	Recommendations on software to use for 2D 
+	•	Any tips for a beginner in digital art and 3D modeling ( should I start for donuts tutorial)
+I’ve heard good things about Wacom, Huion, and XP-Pen, but I’m not sure which model would be best for my needs. Any advice or recommendations would be greatly appreciated!
+Thanks in advance!</t>
+  </si>
+  <si>
+    <t>https://www.reddit.com/r/arttools/comments/1de2ks7/title_looking_for_budget_drawing_tablet/ Hi everyone,
+I’m looking to get into digital art and 3D design, and I’m in need of a budget-friendly drawing tablet. My primary use will be for 2D character and thumbnail design, as well as some 3D modeling for things like cars and other objects.
+What I’m looking for:
+	•	A budget-friendly tablet (under $100 or high if possible)
+	•	Suitable for both 2D and 3D design
+	•	Recommendations on software to use for 2D 
+	•	Any tips for a beginner in digital art and 3D modeling ( should I start for donuts tutorial)
+I’ve heard good things about Wacom, Huion, and XP-Pen, but I’m not sure which model would be best for my needs. Any advice or recommendations would be greatly appreciated!
+Thanks in advance!</t>
+  </si>
+  <si>
+    <t>Author is actively seeking advice to get started in digital art.</t>
+  </si>
+  <si>
+    <t>The author is a beginner and is looking for advice and tips.</t>
+  </si>
+  <si>
+    <t>1btf9x2</t>
+  </si>
+  <si>
+    <t>investigative_mind1a</t>
+  </si>
+  <si>
+    <t>Hopkins unionizes... and gets a raise of 40%!!!!</t>
+  </si>
+  <si>
+    <t>Dear all,
+Johns Hopkins University's PhD unionized last year through United Electrical, Radio and Machine Workers of America  and became [TRU-UE Local 197](https://trujhu.org/).
+Now [Johns Hopkins agreed to a minimum stipend of 48k starting this year](https://docs.google.com/document/d/1IW2aY0xj12vH3NFfFbwAo8nC9t5JtQcUE7g6w-TgS4M/edit) \- that is on average 40% more than before!! AMAZING! Imagine what else we could achieve with unions in this country, if PhD students were able to get a 40% raise with very little bargaining power...
+WHOOOP WHOOOP</t>
+  </si>
+  <si>
+    <t>PhD Wins</t>
+  </si>
+  <si>
+    <t>Hopkins unionizes... and gets a raise of 40%!!!! Dear all,
+Johns Hopkins University's PhD unionized last year through United Electrical, Radio and Machine Workers of America  and became [TRU-UE Local 197](https://trujhu.org/).
+Now [Johns Hopkins agreed to a minimum stipend of 48k starting this year](https://docs.google.com/document/d/1IW2aY0xj12vH3NFfFbwAo8nC9t5JtQcUE7g6w-TgS4M/edit) \- that is on average 40% more than before!! AMAZING! Imagine what else we could achieve with unions in this country, if PhD students were able to get a 40% raise with very little bargaining power...
+WHOOOP WHOOOP</t>
+  </si>
+  <si>
+    <t>https://www.reddit.com/r/PhD/comments/1btf9x2/hopkins_unionizes_and_gets_a_raise_of_40/ Dear all,
+Johns Hopkins University's PhD unionized last year through United Electrical, Radio and Machine Workers of America  and became [TRU-UE Local 197](https://trujhu.org/).
+Now [Johns Hopkins agreed to a minimum stipend of 48k starting this year](https://docs.google.com/document/d/1IW2aY0xj12vH3NFfFbwAo8nC9t5JtQcUE7g6w-TgS4M/edit) \- that is on average 40% more than before!! AMAZING! Imagine what else we could achieve with unions in this country, if PhD students were able to get a 40% raise with very little bargaining power...
+WHOOOP WHOOOP</t>
+  </si>
+  <si>
+    <t>Post discusses union activities, not personal art interest or productivity.</t>
+  </si>
+  <si>
+    <t>The author expresses enthusiasm for unionization, not personal creative struggle.</t>
+  </si>
+  <si>
+    <t>1elt03e</t>
+  </si>
+  <si>
+    <t>Jaseatstoast</t>
+  </si>
+  <si>
+    <t>How can my 13 y.o. learn figure drawing?</t>
+  </si>
+  <si>
+    <t>So my daughter is really into art, specifically manga and anime. But she's been talking about learning figure drawing because she thinks her art looks unnatural and stiff, so we started looking into courses and resources to learn figure and gesture drawing. The problem is a lot of the resources rely on nude models (one example was Lovelifedrawing's fresh eyes course) which I think we're both uncomfortable with. And of course I want to support my daughter but I don't think these will work, is there any other way she can learn??
+Edit: Thank you so much! I let my kid scroll through these and she was super excited.</t>
+  </si>
+  <si>
+    <t>Beginner</t>
+  </si>
+  <si>
+    <t>How can my 13 y.o. learn figure drawing? So my daughter is really into art, specifically manga and anime. But she's been talking about learning figure drawing because she thinks her art looks unnatural and stiff, so we started looking into courses and resources to learn figure and gesture drawing. The problem is a lot of the resources rely on nude models (one example was Lovelifedrawing's fresh eyes course) which I think we're both uncomfortable with. And of course I want to support my daughter but I don't think these will work, is there any other way she can learn??
+Edit: Thank you so much! I let my kid scroll through these and she was super excited.</t>
+  </si>
+  <si>
+    <t>https://www.reddit.com/r/ArtistLounge/comments/1elt03e/how_can_my_13_yo_learn_figure_drawing/ So my daughter is really into art, specifically manga and anime. But she's been talking about learning figure drawing because she thinks her art looks unnatural and stiff, so we started looking into courses and resources to learn figure and gesture drawing. The problem is a lot of the resources rely on nude models (one example was Lovelifedrawing's fresh eyes course) which I think we're both uncomfortable with. And of course I want to support my daughter but I don't think these will work, is there any other way she can learn??
+Edit: Thank you so much! I let my kid scroll through these and she was super excited.</t>
+  </si>
+  <si>
+    <t>The author is actively seeking resources to support their child's interest.</t>
+  </si>
+  <si>
+    <t>The daughter is interested and excited to learn.</t>
+  </si>
+  <si>
+    <t>1dh4u3o</t>
+  </si>
+  <si>
+    <t>QueenofSass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is it reasonable to quit because of money </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I like being a PhD student. I don’t think I’m bad at it. I can do conferences. I have several publications on the way. I’m passionate about my research topic and I think it’s important. I comp next semester, so it’s not like I’m just beginning the program. 
+But god it all feels pointless when I spend most of my time stressed about money. My stipend is shit and barely covers the rent of this over priced town. 
+My friends are buying houses and settling down and I’m crying over the fact that I can barely pay rent this summer let alone buy groceries. 
+It would be so easy just to quit. Get a normal job with benefits and stop being so stressed all the time.
+Is money a good enough reason to quit? This is my last year of funding and I don’t even know how I’ll survive after that’s gone. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is it reasonable to quit because of money  I like being a PhD student. I don’t think I’m bad at it. I can do conferences. I have several publications on the way. I’m passionate about my research topic and I think it’s important. I comp next semester, so it’s not like I’m just beginning the program. 
+But god it all feels pointless when I spend most of my time stressed about money. My stipend is shit and barely covers the rent of this over priced town. 
+My friends are buying houses and settling down and I’m crying over the fact that I can barely pay rent this summer let alone buy groceries. 
+It would be so easy just to quit. Get a normal job with benefits and stop being so stressed all the time.
+Is money a good enough reason to quit? This is my last year of funding and I don’t even know how I’ll survive after that’s gone. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.reddit.com/r/PhD/comments/1dh4u3o/is_it_reasonable_to_quit_because_of_money/ I like being a PhD student. I don’t think I’m bad at it. I can do conferences. I have several publications on the way. I’m passionate about my research topic and I think it’s important. I comp next semester, so it’s not like I’m just beginning the program. 
+But god it all feels pointless when I spend most of my time stressed about money. My stipend is shit and barely covers the rent of this over priced town. 
+My friends are buying houses and settling down and I’m crying over the fact that I can barely pay rent this summer let alone buy groceries. 
+It would be so easy just to quit. Get a normal job with benefits and stop being so stressed all the time.
+Is money a good enough reason to quit? This is my last year of funding and I don’t even know how I’ll survive after that’s gone. </t>
+  </si>
+  <si>
+    <t>Author has several publications and attends conferences.</t>
+  </si>
+  <si>
+    <t>Financial stress and thoughts about quitting indicate struggle.</t>
+  </si>
+  <si>
+    <t>1buw6m4</t>
+  </si>
+  <si>
+    <t>yeehaw_hat</t>
+  </si>
+  <si>
+    <t>Sculp-metal?</t>
+  </si>
+  <si>
+    <t>I subbed for an art class in a middle school for about a month and found sculp-metal in an art magazine from 1973! I can't seem to find anything about the brand or the company, or any examples of the finished product. My guess is it's a bit like silver/bronze clay, the ones you can smelt into metal.</t>
+  </si>
+  <si>
+    <t>Sculp-metal? I subbed for an art class in a middle school for about a month and found sculp-metal in an art magazine from 1973! I can't seem to find anything about the brand or the company, or any examples of the finished product. My guess is it's a bit like silver/bronze clay, the ones you can smelt into metal.</t>
+  </si>
+  <si>
+    <t>https://www.reddit.com/r/arttools/comments/1buw6m4/sculpmetal/ I subbed for an art class in a middle school for about a month and found sculp-metal in an art magazine from 1973! I can't seem to find anything about the brand or the company, or any examples of the finished product. My guess is it's a bit like silver/bronze clay, the ones you can smelt into metal.</t>
+  </si>
+  <si>
+    <t>The author has relevant teaching experience and shows interest in researching art materials.</t>
+  </si>
+  <si>
+    <t>The author expresses curiosity and interest without mentioning any struggle.</t>
+  </si>
+  <si>
+    <t>1gn5fp5</t>
+  </si>
+  <si>
+    <t>GeneralMain5847</t>
+  </si>
+  <si>
+    <t>ArtCrit</t>
+  </si>
+  <si>
+    <t>Opinions?</t>
+  </si>
+  <si>
+    <t>‘Breakout’ by Joshua Hermanns</t>
+  </si>
+  <si>
+    <t>Intermediate</t>
+  </si>
+  <si>
+    <t>Opinions? ‘Breakout’ by Joshua Hermanns</t>
+  </si>
+  <si>
+    <t>https://i.redd.it/cli5uh3t3uzd1.jpeg ‘Breakout’ by Joshua Hermanns</t>
+  </si>
+  <si>
+    <t>No evidence provided regarding the author's productivity.</t>
+  </si>
+  <si>
+    <t>No clear evidence about the author's creative process or difficulty.</t>
+  </si>
+  <si>
+    <t>1gxfb5u</t>
+  </si>
+  <si>
+    <t>Background_Space_507</t>
+  </si>
+  <si>
+    <t>I know abstract isn’t for everyone, but which one do you like the most?</t>
+  </si>
+  <si>
+    <t>Here are a few paintings I’ve made in 2024. I’ve learned a lot this year and have gotten closer to discovering the style I enjoy working on, but I’d love to hear your opinion.
+If you have any questions, feel free to send me a DM on Reddit, e-mail or instagram.</t>
+  </si>
+  <si>
+    <t>I know abstract isn’t for everyone, but which one do you like the most? Here are a few paintings I’ve made in 2024. I’ve learned a lot this year and have gotten closer to discovering the style I enjoy working on, but I’d love to hear your opinion.
+If you have any questions, feel free to send me a DM on Reddit, e-mail or instagram.</t>
+  </si>
+  <si>
+    <t>https://www.reddit.com/gallery/1gxfb5u Here are a few paintings I’ve made in 2024. I’ve learned a lot this year and have gotten closer to discovering the style I enjoy working on, but I’d love to hear your opinion.
+If you have any questions, feel free to send me a DM on Reddit, e-mail or instagram.</t>
+  </si>
+  <si>
+    <t>Author actively creates paintings and seeks feedback for improvement.</t>
+  </si>
+  <si>
+    <t>Author enjoys working on his style and seeks opinions.</t>
+  </si>
+  <si>
+    <t>1au3pei</t>
+  </si>
+  <si>
+    <t>AppropriateRhubarb92</t>
+  </si>
+  <si>
+    <t>Dear artists, please do whatever you want</t>
+  </si>
+  <si>
+    <t>I see so many posts here about being bored with art,  questions about if it is OK to have a certain art process or "should I just quit" etc etc. And they all make me think; just do what you want! Do what you feel is fun! 
+There are no shoulds in art. Art is about creating. And I feel like this sub has lost the sense of creativity for the sake of becoming a technical master. For the sake of doing things exactly right, "how they are supposed to be done", which for many completely drain them of motivation. Leading them to feel like its something wrong with them, that they are not good enough, that they are not doing it right, that maybe they should just quit making art.
+SOO much anxiety and self baching in this sub, all in the name of "doing it right". Instead av just doing what you want, what makes you feel good. 
+So dear artists on this sub, please do what you want. Do you have an art process you enjoy, dont question yourself because its not by some book of teachings. Dont forget what art truly is - an expression of your inner self, pouring out on paper, making others feel something. It is not a technical skill, that is only the outer layer of makeup.</t>
+  </si>
+  <si>
+    <t>Dear artists, please do whatever you want I see so many posts here about being bored with art,  questions about if it is OK to have a certain art process or "should I just quit" etc etc. And they all make me think; just do what you want! Do what you feel is fun! 
+There are no shoulds in art. Art is about creating. And I feel like this sub has lost the sense of creativity for the sake of becoming a technical master. For the sake of doing things exactly right, "how they are supposed to be done", which for many completely drain them of motivation. Leading them to feel like its something wrong with them, that they are not good enough, that they are not doing it right, that maybe they should just quit making art.
+SOO much anxiety and self baching in this sub, all in the name of "doing it right". Instead av just doing what you want, what makes you feel good. 
+So dear artists on this sub, please do what you want. Do you have an art process you enjoy, dont question yourself because its not by some book of teachings. Dont forget what art truly is - an expression of your inner self, pouring out on paper, making others feel something. It is not a technical skill, that is only the outer layer of makeup.</t>
+  </si>
+  <si>
+    <t>https://www.reddit.com/r/ArtistLounge/comments/1au3pei/dear_artists_please_do_whatever_you_want/ I see so many posts here about being bored with art,  questions about if it is OK to have a certain art process or "should I just quit" etc etc. And they all make me think; just do what you want! Do what you feel is fun! 
+There are no shoulds in art. Art is about creating. And I feel like this sub has lost the sense of creativity for the sake of becoming a technical master. For the sake of doing things exactly right, "how they are supposed to be done", which for many completely drain them of motivation. Leading them to feel like its something wrong with them, that they are not good enough, that they are not doing it right, that maybe they should just quit making art.
+SOO much anxiety and self baching in this sub, all in the name of "doing it right". Instead av just doing what you want, what makes you feel good. 
+So dear artists on this sub, please do what you want. Do you have an art process you enjoy, dont question yourself because its not by some book of teachings. Dont forget what art truly is - an expression of your inner self, pouring out on paper, making others feel something. It is not a technical skill, that is only the outer layer of makeup.</t>
+  </si>
+  <si>
+    <t>The author expresses their views but doesn't directly mention their productivity.</t>
+  </si>
+  <si>
+    <t>The author mentions anxiety, self-deprecation, and loss of motivation.</t>
+  </si>
+  <si>
+    <t>1gzrwq9</t>
+  </si>
+  <si>
+    <t>Frostysocks1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I made these brushes </t>
+  </si>
+  <si>
+    <t>Do you guys like the honey bee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Just Sharing </t>
+  </si>
+  <si>
+    <t>I made these brushes  Do you guys like the honey bee</t>
+  </si>
+  <si>
+    <t>https://www.reddit.com/gallery/1gzrwq9 Do you guys like the honey bee</t>
+  </si>
+  <si>
+    <t>The author has created something related to their interest in art.</t>
+  </si>
+  <si>
+    <t>The author shares their creation casually, implying a comfortable experience.</t>
+  </si>
+  <si>
+    <t>1gd1oau</t>
+  </si>
+  <si>
+    <t>ComixBoox</t>
+  </si>
+  <si>
+    <t>I just realized why so many art subreddits are now filled with people asking "what is this style called"</t>
+  </si>
+  <si>
+    <t>Its so they can generate AI bullshit. I kept thinking it was the same kind of innocent questions about style that younger artists often have who think that "style" can be easily broken down into concrete categories or think that an artists style is the result of direct attempts to replicate other work and not just a thing that happens naturally as a result of that + how an artist sees the world + subconcious influence + mistakes or shortcuts to depict certain things that become second nature when creating art.
+ But nope. Just more people who think that the baring of the human soul is better off being mass produced by machines to eliminate the inconvenience of having to practice something or really care about it to be good at it.
+Edit: Just to clarify I know not all of the "what style is this" posts are about this, there are still lots of young artists out there asking for their own sake and that kicks ass, asking questions is the best way to learn! I just wrote this after seeing a post I thought was by someone asking for the usual reasons but then saw one of the OPs replies talking about using it for prompts. It just turned my stomach when I realized I cant even have a conversation with another artist online now without having to be on the lookout for AI grift.</t>
+  </si>
+  <si>
+    <t>Style</t>
+  </si>
+  <si>
+    <t>I just realized why so many art subreddits are now filled with people asking "what is this style called" Its so they can generate AI bullshit. I kept thinking it was the same kind of innocent questions about style that younger artists often have who think that "style" can be easily broken down into concrete categories or think that an artists style is the result of direct attempts to replicate other work and not just a thing that happens naturally as a result of that + how an artist sees the world + subconcious influence + mistakes or shortcuts to depict certain things that become second nature when creating art.
+ But nope. Just more people who think that the baring of the human soul is better off being mass produced by machines to eliminate the inconvenience of having to practice something or really care about it to be good at it.
+Edit: Just to clarify I know not all of the "what style is this" posts are about this, there are still lots of young artists out there asking for their own sake and that kicks ass, asking questions is the best way to learn! I just wrote this after seeing a post I thought was by someone asking for the usual reasons but then saw one of the OPs replies talking about using it for prompts. It just turned my stomach when I realized I cant even have a conversation with another artist online now without having to be on the lookout for AI grift.</t>
+  </si>
+  <si>
+    <t>https://www.reddit.com/r/ArtistLounge/comments/1gd1oau/i_just_realized_why_so_many_art_subreddits_are/ Its so they can generate AI bullshit. I kept thinking it was the same kind of innocent questions about style that younger artists often have who think that "style" can be easily broken down into concrete categories or think that an artists style is the result of direct attempts to replicate other work and not just a thing that happens naturally as a result of that + how an artist sees the world + subconcious influence + mistakes or shortcuts to depict certain things that become second nature when creating art.
+ But nope. Just more people who think that the baring of the human soul is better off being mass produced by machines to eliminate the inconvenience of having to practice something or really care about it to be good at it.
+Edit: Just to clarify I know not all of the "what style is this" posts are about this, there are still lots of young artists out there asking for their own sake and that kicks ass, asking questions is the best way to learn! I just wrote this after seeing a post I thought was by someone asking for the usual reasons but then saw one of the OPs replies talking about using it for prompts. It just turned my stomach when I realized I cant even have a conversation with another artist online now without having to be on the lookout for AI grift.</t>
+  </si>
+  <si>
+    <t>Author expresses deep knowledge about art and encourages learning.</t>
+  </si>
+  <si>
+    <t>Author expresses frustration about art being automated, implying personal struggle.</t>
+  </si>
+  <si>
+    <t>1fu51c4</t>
+  </si>
+  <si>
+    <t>Acertalks</t>
+  </si>
+  <si>
+    <t>JD Vance to Economists with doctorate</t>
+  </si>
+  <si>
+    <t>They have PhD, but don’t have common sense.
+Bruh, why do these politicians love to bash doctorates and experts. Like common sense is great if we want to go back to bartering chickens for Wi-Fi.</t>
+  </si>
+  <si>
+    <t>Humor</t>
+  </si>
+  <si>
+    <t>JD Vance to Economists with doctorate They have PhD, but don’t have common sense.
+Bruh, why do these politicians love to bash doctorates and experts. Like common sense is great if we want to go back to bartering chickens for Wi-Fi.</t>
+  </si>
+  <si>
+    <t>https://www.reddit.com/r/PhD/comments/1fu51c4/jd_vance_to_economists_with_doctorate/ They have PhD, but don’t have common sense.
+Bruh, why do these politicians love to bash doctorates and experts. Like common sense is great if we want to go back to bartering chickens for Wi-Fi.</t>
+  </si>
+  <si>
+    <t>The author shows interest but doesn't share their own productivity.</t>
+  </si>
+  <si>
+    <t>The author expresses frustration but not about creative process.</t>
+  </si>
+  <si>
+    <t>1fkqr1e</t>
+  </si>
+  <si>
+    <t>Mean_Sleep5936</t>
+  </si>
+  <si>
+    <t>Almost fought a dude on a train who said an MD is MUCH more impressive than a PhD</t>
+  </si>
+  <si>
+    <t>Edit: Not actually, I don’t fight people and I was fine LOL
+A silly post maybe, but a random dude on a train asked me what I do, and when I said I was a PhD student he immediately said “oh, an MD would be MUCH more impressive”. This was right after my month long qualifying exam. I almost fought him.
+I wonder why PhDs are SO erroneously portrayed to people who don’t pursue this path. Firstly most people think you pay to get a PhD (some people in my extended family eyed my dad when I told them I’m doing a PhD and said they couldn’t afford to not make their own money in their 20s, to which I responded that I GET PAID A STIPEND and my dad hasn’t supported me for many many years bc I had a job before a PhD). The word “student” just gives an impression like you’re dependent on your family for pay, which is usually not true for a PhD, and that you have to pay out of pocket for your degree, which is true for MD, JD, MBA, Master’s etc, but usually not for PhD.
+Also, MDs get all this respect, which is valid too but, people don’t understand that PhDs are working at the boundaries of human knowledge to learn new stuff about the world. For me, I do medical research and work with MDs all the time, too, so it feels like important stuff for society that directly interacts with medicine and could even improve medicine rather than just performing current practices (even though sometimes I get disillusioned about this).
+I do think what MDs do is really impressive and just a different life path, but I feel like people understand what being a doctor means but don’t understand what a PhD means.
+It’s also a misunderstood thing even for people who do pursue higher education like college. I constantly get an “I’m so done with school I could never do more classes, I can’t believe you’d pick that path” from people with bachelor’s and master’s degrees. But they often don’t understand that coursework is only a snippet of what PhD students do and actually the most crucial parts are what you have to do beyond coursework.
+People also don’t realize that PhD programs are very competitive to get into.
+I don’t think it’s a huge societal issue that PhDs aren’t understood, but it does still make me a bit mad when people say stuff like “an MD would be MUCH more impressive”</t>
+  </si>
+  <si>
+    <t>Almost fought a dude on a train who said an MD is MUCH more impressive than a PhD Edit: Not actually, I don’t fight people and I was fine LOL
+A silly post maybe, but a random dude on a train asked me what I do, and when I said I was a PhD student he immediately said “oh, an MD would be MUCH more impressive”. This was right after my month long qualifying exam. I almost fought him.
+I wonder why PhDs are SO erroneously portrayed to people who don’t pursue this path. Firstly most people think you pay to get a PhD (some people in my extended family eyed my dad when I told them I’m doing a PhD and said they couldn’t afford to not make their own money in their 20s, to which I responded that I GET PAID A STIPEND and my dad hasn’t supported me for many many years bc I had a job before a PhD). The word “student” just gives an impression like you’re dependent on your family for pay, which is usually not true for a PhD, and that you have to pay out of pocket for your degree, which is true for MD, JD, MBA, Master’s etc, but usually not for PhD.
+Also, MDs get all this respect, which is valid too but, people don’t understand that PhDs are working at the boundaries of human knowledge to learn new stuff about the world. For me, I do medical research and work with MDs all the time, too, so it feels like important stuff for society that directly interacts with medicine and could even improve medicine rather than just performing current practices (even though sometimes I get disillusioned about this).
+I do think what MDs do is really impressive and just a different life path, but I feel like people understand what being a doctor means but don’t understand what a PhD means.
+It’s also a misunderstood thing even for people who do pursue higher education like college. I constantly get an “I’m so done with school I could never do more classes, I can’t believe you’d pick that path” from people with bachelor’s and master’s degrees. But they often don’t understand that coursework is only a snippet of what PhD students do and actually the most crucial parts are what you have to do beyond coursework.
+People also don’t realize that PhD programs are very competitive to get into.
+I don’t think it’s a huge societal issue that PhDs aren’t understood, but it does still make me a bit mad when people say stuff like “an MD would be MUCH more impressive”</t>
+  </si>
+  <si>
+    <t>Author is a current PhD student, suggesting ongoing productivity in their studies.</t>
+  </si>
+  <si>
+    <t>Author describes PhD program as competitive and misunderstood.</t>
+  </si>
+  <si>
+    <t>1b5xjyf</t>
+  </si>
+  <si>
+    <t>ArtofAset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do you ever feel amazed or in love with the art you make? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sometimes the art I make is so beautiful and the colors look so amazing together that I literally feel like crying over how much I love it.
+Is this normal? Have you ever felt the same? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do you ever feel amazed or in love with the art you make?  Sometimes the art I make is so beautiful and the colors look so amazing together that I literally feel like crying over how much I love it.
+Is this normal? Have you ever felt the same? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.reddit.com/r/ArtistLounge/comments/1b5xjyf/do_you_ever_feel_amazed_or_in_love_with_the_art/ Sometimes the art I make is so beautiful and the colors look so amazing together that I literally feel like crying over how much I love it.
+Is this normal? Have you ever felt the same? </t>
+  </si>
+  <si>
+    <t>Author is actively creating art and expressing emotional connection to it.</t>
+  </si>
+  <si>
+    <t>The author expresses joy and satisfaction with their art.</t>
+  </si>
+  <si>
+    <t>1gbtmu6</t>
+  </si>
+  <si>
+    <t>Easilyannoyed_</t>
+  </si>
+  <si>
+    <t>Birbs</t>
+  </si>
+  <si>
+    <t>Just started painting about a month ago. Me and my art are a work in progress.</t>
+  </si>
+  <si>
+    <t>Birbs Just started painting about a month ago. Me and my art are a work in progress.</t>
+  </si>
+  <si>
+    <t>https://www.reddit.com/gallery/1gbtmu6 Just started painting about a month ago. Me and my art are a work in progress.</t>
+  </si>
+  <si>
+    <t>Despite being new to painting, the author is actively engaging in the activity.</t>
+  </si>
+  <si>
+    <t>Author is a beginner, so creation likely requires significant effort.</t>
+  </si>
+  <si>
+    <t>1fuizqz</t>
+  </si>
+  <si>
+    <t>CherryFizz23</t>
+  </si>
+  <si>
+    <t>PhD romance, spill the tea</t>
+  </si>
+  <si>
+    <t>Hi all, has anyone doing a PhD or working in academia had a romantic fling at a conference or a juicy encounter with a fellow colleague? Any juicy stories? 🫖</t>
+  </si>
+  <si>
+    <t>PhD romance, spill the tea Hi all, has anyone doing a PhD or working in academia had a romantic fling at a conference or a juicy encounter with a fellow colleague? Any juicy stories? 🫖</t>
+  </si>
+  <si>
+    <t>https://www.reddit.com/r/PhD/comments/1fuizqz/phd_romance_spill_the_tea/ Hi all, has anyone doing a PhD or working in academia had a romantic fling at a conference or a juicy encounter with a fellow colleague? Any juicy stories? 🫖</t>
+  </si>
+  <si>
+    <t>The post is seeking personal stories, not discussing art or related experiences.</t>
+  </si>
+  <si>
+    <t>The author shows curiosity but doesn't express any personal creation hardship.</t>
+  </si>
+  <si>
+    <t>1f7x3dm</t>
+  </si>
+  <si>
+    <t>Specialist_Emu_6413</t>
+  </si>
+  <si>
+    <t>I got my PhD completion letter and supervisor did not care one bit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hi fellow PhDs,
+The past few days have been bittersweet for me and I wanted to vent.
+I was finally conferred my PhD last week. I’m not sure how it works in other universities, but at my school, the candidate gets the completion notification by email and all supervisors are cc’ed. 
+It’s now been more than a week, and all I got from my supervisor is radio silence. He literally has not even replied to the email. 
+For context, he did not believe I was able to finish the PhD and did not read a single word of my thesis. To his surprise, my thesis passed examination with minor amendments. 
+Even though everyone says that he’s just bitter and that I should just ignore him, I can’t help but feel unworthy of this achievement :(
+Anyone have a similar experience with their supervisor being the biggest jerk? 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I got my PhD completion letter and supervisor did not care one bit Hi fellow PhDs,
+The past few days have been bittersweet for me and I wanted to vent.
+I was finally conferred my PhD last week. I’m not sure how it works in other universities, but at my school, the candidate gets the completion notification by email and all supervisors are cc’ed. 
+It’s now been more than a week, and all I got from my supervisor is radio silence. He literally has not even replied to the email. 
+For context, he did not believe I was able to finish the PhD and did not read a single word of my thesis. To his surprise, my thesis passed examination with minor amendments. 
+Even though everyone says that he’s just bitter and that I should just ignore him, I can’t help but feel unworthy of this achievement :(
+Anyone have a similar experience with their supervisor being the biggest jerk? 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.reddit.com/r/PhD/comments/1f7x3dm/i_got_my_phd_completion_letter_and_supervisor_did/ Hi fellow PhDs,
+The past few days have been bittersweet for me and I wanted to vent.
+I was finally conferred my PhD last week. I’m not sure how it works in other universities, but at my school, the candidate gets the completion notification by email and all supervisors are cc’ed. 
+It’s now been more than a week, and all I got from my supervisor is radio silence. He literally has not even replied to the email. 
+For context, he did not believe I was able to finish the PhD and did not read a single word of my thesis. To his surprise, my thesis passed examination with minor amendments. 
+Even though everyone says that he’s just bitter and that I should just ignore him, I can’t help but feel unworthy of this achievement :(
+Anyone have a similar experience with their supervisor being the biggest jerk? 
+</t>
+  </si>
+  <si>
+    <t>The author has completed a PhD, indicating significant productivity.</t>
+  </si>
+  <si>
+    <t>Author faced disbelief and lack of support from supervisor.</t>
+  </si>
+  <si>
+    <t>1gwo9on</t>
+  </si>
+  <si>
+    <t>Main-Pie7197</t>
+  </si>
+  <si>
+    <t>How can I improve?</t>
+  </si>
+  <si>
+    <t>Hey guys! I’m a 17-year-old artist who mainly works with charcoal. I’m looking to improve my skills and make my work more realistic. I’d love any tips, techniques, or feedback that could help me grow!</t>
+  </si>
+  <si>
+    <t>How can I improve? Hey guys! I’m a 17-year-old artist who mainly works with charcoal. I’m looking to improve my skills and make my work more realistic. I’d love any tips, techniques, or feedback that could help me grow!</t>
+  </si>
+  <si>
+    <t>https://i.redd.it/2705txss5b2e1.jpeg Hey guys! I’m a 17-year-old artist who mainly works with charcoal. I’m looking to improve my skills and make my work more realistic. I’d love any tips, techniques, or feedback that could help me grow!</t>
+  </si>
+  <si>
+    <t>Actively seeking feedback and ways to improve their art skills.</t>
+  </si>
+  <si>
+    <t>The author is enthusiastic and open to learning and improving.</t>
+  </si>
+  <si>
+    <t>1fzhujg</t>
+  </si>
+  <si>
+    <t>Nerpulus</t>
+  </si>
+  <si>
+    <t>Plastic tabletop drawing board with storage compartments?</t>
+  </si>
+  <si>
+    <t>There is something I used to have and want to find again.
+A flat hinged plastic box thicker on one edge than the other so it's a bit wedge-shaped. 
+You put it on the table and use it like a drawing board. Lift the top surface to open the main compartment and you can store large pads of paper there. Open the other compartment that's on the thick edge, to store pens and pencils.
+(the one I used to have was blue)
+No amount of thinking of different words to call it by in the search query is finding it online. Does anyone know what I am talking about, who sells it, or what the name for it is?</t>
+  </si>
+  <si>
+    <t>Plastic tabletop drawing board with storage compartments? There is something I used to have and want to find again.
+A flat hinged plastic box thicker on one edge than the other so it's a bit wedge-shaped. 
+You put it on the table and use it like a drawing board. Lift the top surface to open the main compartment and you can store large pads of paper there. Open the other compartment that's on the thick edge, to store pens and pencils.
+(the one I used to have was blue)
+No amount of thinking of different words to call it by in the search query is finding it online. Does anyone know what I am talking about, who sells it, or what the name for it is?</t>
+  </si>
+  <si>
+    <t>https://www.reddit.com/r/arttools/comments/1fzhujg/plastic_tabletop_drawing_board_with_storage/ There is something I used to have and want to find again.
+A flat hinged plastic box thicker on one edge than the other so it's a bit wedge-shaped. 
+You put it on the table and use it like a drawing board. Lift the top surface to open the main compartment and you can store large pads of paper there. Open the other compartment that's on the thick edge, to store pens and pencils.
+(the one I used to have was blue)
+No amount of thinking of different words to call it by in the search query is finding it online. Does anyone know what I am talking about, who sells it, or what the name for it is?</t>
+  </si>
+  <si>
+    <t>Author is searching for art equipment, not producing art.</t>
+  </si>
+  <si>
+    <t>The author is seeking a tool, but no creation pain mentioned.</t>
+  </si>
+  <si>
+    <t>1f8hz3e</t>
+  </si>
+  <si>
+    <t>Antsculpt</t>
+  </si>
+  <si>
+    <t>[self] Got to show this piece in an art show in NYC recently</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It was surreal to be able to share it in person with people in Manhattan. Only my second art show but I hope I’ll be able to do more soon. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[self] Got to show this piece in an art show in NYC recently It was surreal to be able to share it in person with people in Manhattan. Only my second art show but I hope I’ll be able to do more soon. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://i.redd.it/2i7eb3nmbpmd1.jpeg It was surreal to be able to share it in person with people in Manhattan. Only my second art show but I hope I’ll be able to do more soon. </t>
+  </si>
+  <si>
+    <t>Author has participated in two art shows, indicating active involvement in art.</t>
+  </si>
+  <si>
+    <t>Author shows enthusiasm and hope for future shows.</t>
+  </si>
+  <si>
+    <t>1g66wak</t>
+  </si>
+  <si>
+    <t>Keh-</t>
+  </si>
+  <si>
+    <t>I stopped showing off my art as I grow older</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I stopped showing off my art less and less as I grow older. It's to the point people I've known for 2 or more years are surprised when they find out. 
+I think the last time I've shown my art to a stranger. They just pull up a profile of another artist who is better and gush about how they love them. Or I just hear my close friends say they prefer an *insert topic* drawing. I'll pull up a drawing in that topic I've done and they're like no more like ---. Or I see them rave about other artist and criticize mine.
+I asked for my friend's opinion one time and they said they don't think I improved much and it affected me the whole year, making me strive to improve just for her to say she can't tell.
+(My friends are not artist)
+I just started showing my art less or at all. Like it's better without people ruining my enjoyment. But another part of me is saying, isn't it part of your identity?
+Does anyone else feel this way? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I stopped showing off my art as I grow older I stopped showing off my art less and less as I grow older. It's to the point people I've known for 2 or more years are surprised when they find out. 
+I think the last time I've shown my art to a stranger. They just pull up a profile of another artist who is better and gush about how they love them. Or I just hear my close friends say they prefer an *insert topic* drawing. I'll pull up a drawing in that topic I've done and they're like no more like ---. Or I see them rave about other artist and criticize mine.
+I asked for my friend's opinion one time and they said they don't think I improved much and it affected me the whole year, making me strive to improve just for her to say she can't tell.
+(My friends are not artist)
+I just started showing my art less or at all. Like it's better without people ruining my enjoyment. But another part of me is saying, isn't it part of your identity?
+Does anyone else feel this way? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.reddit.com/r/ArtistLounge/comments/1g66wak/i_stopped_showing_off_my_art_as_i_grow_older/ I stopped showing off my art less and less as I grow older. It's to the point people I've known for 2 or more years are surprised when they find out. 
+I think the last time I've shown my art to a stranger. They just pull up a profile of another artist who is better and gush about how they love them. Or I just hear my close friends say they prefer an *insert topic* drawing. I'll pull up a drawing in that topic I've done and they're like no more like ---. Or I see them rave about other artist and criticize mine.
+I asked for my friend's opinion one time and they said they don't think I improved much and it affected me the whole year, making me strive to improve just for her to say she can't tell.
+(My friends are not artist)
+I just started showing my art less or at all. Like it's better without people ruining my enjoyment. But another part of me is saying, isn't it part of your identity?
+Does anyone else feel this way? </t>
+  </si>
+  <si>
+    <t>The author is discouraged and has stopped showing their art.</t>
+  </si>
+  <si>
+    <t>Criticism and lack of recognition causing emotional pain.</t>
+  </si>
+  <si>
+    <t>1f2vpn5</t>
+  </si>
+  <si>
+    <t>One_Lingonberry_8554</t>
+  </si>
+  <si>
+    <t>Sealing over gold leaf I applied over oil</t>
+  </si>
+  <si>
+    <t>Hello artists. I recently did an oil painting, and gilded with imitation gold leaf on top. I am not sure which sealant to use on top to keep it from tarnishing. Thoughts or advice? I've never done gold leaf before and I saw a lot of the sealants online are water-based, which I wasn't sure would work. Thanks!</t>
+  </si>
+  <si>
+    <t>Sealing over gold leaf I applied over oil Hello artists. I recently did an oil painting, and gilded with imitation gold leaf on top. I am not sure which sealant to use on top to keep it from tarnishing. Thoughts or advice? I've never done gold leaf before and I saw a lot of the sealants online are water-based, which I wasn't sure would work. Thanks!</t>
+  </si>
+  <si>
+    <t>https://www.reddit.com/r/arttools/comments/1f2vpn5/sealing_over_gold_leaf_i_applied_over_oil/ Hello artists. I recently did an oil painting, and gilded with imitation gold leaf on top. I am not sure which sealant to use on top to keep it from tarnishing. Thoughts or advice? I've never done gold leaf before and I saw a lot of the sealants online are water-based, which I wasn't sure would work. Thanks!</t>
+  </si>
+  <si>
+    <t>The author is actively experimenting with different art techniques.</t>
+  </si>
+  <si>
+    <t>The author is inexperienced with gold leaf and unsure about sealing methods.</t>
+  </si>
+  <si>
+    <t>1fjosxe</t>
+  </si>
+  <si>
+    <t>Bearzato</t>
+  </si>
+  <si>
+    <t>ArtBuddy</t>
+  </si>
+  <si>
+    <t>I’m sixteen, I’m looking for criticism</t>
+  </si>
+  <si>
+    <t>It’s been a while since I improved knowingly and I would like some advice. Any opinions or suggestions are appreciated either way.</t>
+  </si>
+  <si>
+    <t>Critique Wanted</t>
+  </si>
+  <si>
+    <t>I’m sixteen, I’m looking for criticism It’s been a while since I improved knowingly and I would like some advice. Any opinions or suggestions are appreciated either way.</t>
+  </si>
+  <si>
+    <t>https://i.redd.it/ufspgkyrfjpd1.jpeg It’s been a while since I improved knowingly and I would like some advice. Any opinions or suggestions are appreciated either way.</t>
+  </si>
+  <si>
+    <t>Actively seeking feedback and improvement in art skills.</t>
+  </si>
+  <si>
+    <t>The author is actively seeking criticism and improvement, shows no signs of struggle.</t>
+  </si>
+  <si>
+    <t>1bbjoxv</t>
+  </si>
+  <si>
+    <t>teamvoldemort218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It turns out, I’m very bad </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I’ve loved writing ever since I was a kid. I always thought I was pretty good at it and it’s been a lifelong dream to write a book. In this dream, the book is published and I become extremely rich and famous but the realistic part of me would be satisfied with just writing it to write it. I started it and…it’s so bad. I’ve spent hours on it and it’s shocking how bad it is. The flow is absolutely terrible. I’m absolutely terrible. I don’t want to stop because I’m having fun (kind of) but will I get better? Logically, I know the more you practice something the better you get but I just cannot even fathom getting better. I love the plot of my stupid little novel but I struggle so much with actually writing it and the flow of it. Has anyone here started as a bad writer and become a decent writer? This sounds absolutely ridiculous but I’m desperate for some light at the end of my sad tunnel. 
+Edit: I can’t believe how many of you took the time to leave an encouraging comment!! I appreciate it so much and because of all of you, I will continue writing my terrible novel! Also going to dabble in some shitty short stories. You are all incredible and I hope we all become very rich and famous one day together. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">It turns out, I’m very bad  I’ve loved writing ever since I was a kid. I always thought I was pretty good at it and it’s been a lifelong dream to write a book. In this dream, the book is published and I become extremely rich and famous but the realistic part of me would be satisfied with just writing it to write it. I started it and…it’s so bad. I’ve spent hours on it and it’s shocking how bad it is. The flow is absolutely terrible. I’m absolutely terrible. I don’t want to stop because I’m having fun (kind of) but will I get better? Logically, I know the more you practice something the better you get but I just cannot even fathom getting better. I love the plot of my stupid little novel but I struggle so much with actually writing it and the flow of it. Has anyone here started as a bad writer and become a decent writer? This sounds absolutely ridiculous but I’m desperate for some light at the end of my sad tunnel. 
+Edit: I can’t believe how many of you took the time to leave an encouraging comment!! I appreciate it so much and because of all of you, I will continue writing my terrible novel! Also going to dabble in some shitty short stories. You are all incredible and I hope we all become very rich and famous one day together. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.reddit.com/r/writing/comments/1bbjoxv/it_turns_out_im_very_bad/ I’ve loved writing ever since I was a kid. I always thought I was pretty good at it and it’s been a lifelong dream to write a book. In this dream, the book is published and I become extremely rich and famous but the realistic part of me would be satisfied with just writing it to write it. I started it and…it’s so bad. I’ve spent hours on it and it’s shocking how bad it is. The flow is absolutely terrible. I’m absolutely terrible. I don’t want to stop because I’m having fun (kind of) but will I get better? Logically, I know the more you practice something the better you get but I just cannot even fathom getting better. I love the plot of my stupid little novel but I struggle so much with actually writing it and the flow of it. Has anyone here started as a bad writer and become a decent writer? This sounds absolutely ridiculous but I’m desperate for some light at the end of my sad tunnel. 
+Edit: I can’t believe how many of you took the time to leave an encouraging comment!! I appreciate it so much and because of all of you, I will continue writing my terrible novel! Also going to dabble in some shitty short stories. You are all incredible and I hope we all become very rich and famous one day together. </t>
+  </si>
+  <si>
+    <t>They are actively writing and seeking to improve.</t>
+  </si>
+  <si>
+    <t>Author struggles with writing quality and flow, feels desperate.</t>
+  </si>
+  <si>
+    <t>1e1s1uj</t>
+  </si>
+  <si>
+    <t>Dwhyx</t>
+  </si>
+  <si>
+    <t>I mostly make abstract art, so please help me make this painting better.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I like that the sky is a bit wavy since a lot of my art is waves and sea movements. Like the third picture. I just feel like something is missing or feels off. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I mostly make abstract art, so please help me make this painting better. I like that the sky is a bit wavy since a lot of my art is waves and sea movements. Like the third picture. I just feel like something is missing or feels off. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.reddit.com/gallery/1e1s1uj I like that the sky is a bit wavy since a lot of my art is waves and sea movements. Like the third picture. I just feel like something is missing or feels off. </t>
+  </si>
+  <si>
+    <t>The author is actively creating and seeking feedback to improve.</t>
+  </si>
+  <si>
+    <t>The author struggles to improve their painting and finds something missing.</t>
+  </si>
+  <si>
+    <t>1bwgcae</t>
+  </si>
+  <si>
+    <t>Responsible-Cell475</t>
+  </si>
+  <si>
+    <t>Finally finished!</t>
+  </si>
+  <si>
+    <t>Entire drawing made out of small words. The words are used to describe what it’s like to live with mental illness from over 1000 people. The hope is that I can show people that, even if you are suffering, you can transcend, and still become something beautiful in a world that might feel like ruin. 
+Just like the Buddhist saying- the lotus flower blooms brightest in the muckiest, dirtiest, smelliest mud. 
+Second image is a picture of a part of it zoomed in, so you can see that it is made completely out of words. No other type of line work or shading or whatever done. 
+Also, the drawing is 2‘ x 3‘ in size, and the title is called “from the ashes we rise “</t>
+  </si>
+  <si>
+    <t>Skilled</t>
+  </si>
+  <si>
+    <t>Finally finished! Entire drawing made out of small words. The words are used to describe what it’s like to live with mental illness from over 1000 people. The hope is that I can show people that, even if you are suffering, you can transcend, and still become something beautiful in a world that might feel like ruin. 
+Just like the Buddhist saying- the lotus flower blooms brightest in the muckiest, dirtiest, smelliest mud. 
+Second image is a picture of a part of it zoomed in, so you can see that it is made completely out of words. No other type of line work or shading or whatever done. 
+Also, the drawing is 2‘ x 3‘ in size, and the title is called “from the ashes we rise “</t>
+  </si>
+  <si>
+    <t>https://www.reddit.com/gallery/1bwgcae Entire drawing made out of small words. The words are used to describe what it’s like to live with mental illness from over 1000 people. The hope is that I can show people that, even if you are suffering, you can transcend, and still become something beautiful in a world that might feel like ruin. 
+Just like the Buddhist saying- the lotus flower blooms brightest in the muckiest, dirtiest, smelliest mud. 
+Second image is a picture of a part of it zoomed in, so you can see that it is made completely out of words. No other type of line work or shading or whatever done. 
+Also, the drawing is 2‘ x 3‘ in size, and the title is called “from the ashes we rise “</t>
+  </si>
+  <si>
+    <t>Author finished a complex, large-scale project.</t>
+  </si>
+  <si>
+    <t>Involves emotional labor and detailed, meticulous work.</t>
+  </si>
+  <si>
+    <t>1grpjup</t>
+  </si>
+  <si>
+    <t>JuanMaP5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quick question, don't you guys get tired of listening the piece you are writing again and again and again </t>
+  </si>
+  <si>
+    <t>So I am trying to compose an orchestra piece it has a really basic theme the development is focused on the orchestration, but I am already tired of listening to it, I am really excited to write this but I just open my notation software listen to it, and then I don't want to know anything about it, how you guys deal with it</t>
+  </si>
+  <si>
+    <t>Quick question, don't you guys get tired of listening the piece you are writing again and again and again  So I am trying to compose an orchestra piece it has a really basic theme the development is focused on the orchestration, but I am already tired of listening to it, I am really excited to write this but I just open my notation software listen to it, and then I don't want to know anything about it, how you guys deal with it</t>
+  </si>
+  <si>
+    <t>https://www.reddit.com/r/composer/comments/1grpjup/quick_question_dont_you_guys_get_tired_of/ So I am trying to compose an orchestra piece it has a really basic theme the development is focused on the orchestration, but I am already tired of listening to it, I am really excited to write this but I just open my notation software listen to it, and then I don't want to know anything about it, how you guys deal with it</t>
+  </si>
+  <si>
+    <t>The author is actively composing an orchestral piece, indicating productivity.</t>
+  </si>
+  <si>
+    <t>Author expresses fatigue and lack of interest in revisiting their work.</t>
+  </si>
+  <si>
+    <t>1e9psb5</t>
+  </si>
+  <si>
+    <t>elani-illustrates</t>
+  </si>
+  <si>
+    <t>Thoughts on my art?</t>
+  </si>
+  <si>
+    <t>Hi! First time poster, looking to get some feedback and opinions on my art. My art focuses around women and I love playing with color, I love creating things that are quirky and fun to look at. Thank you so much for looking! 🫶🏻</t>
+  </si>
+  <si>
+    <t>Thoughts on my art? Hi! First time poster, looking to get some feedback and opinions on my art. My art focuses around women and I love playing with color, I love creating things that are quirky and fun to look at. Thank you so much for looking! 🫶🏻</t>
+  </si>
+  <si>
+    <t>https://www.reddit.com/gallery/1e9psb5 Hi! First time poster, looking to get some feedback and opinions on my art. My art focuses around women and I love playing with color, I love creating things that are quirky and fun to look at. Thank you so much for looking! 🫶🏻</t>
+  </si>
+  <si>
+    <t>The author is actively creating art and seeking feedback, indicating productivity.</t>
+  </si>
+  <si>
+    <t>The author seems enthusiastic and enjoys the process of creating their art.</t>
+  </si>
+  <si>
+    <t>1fbppeo</t>
+  </si>
+  <si>
+    <t>after_thoughtzzz</t>
+  </si>
+  <si>
+    <t>Husband jealous of live figure drawing class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hello fellow artists! I’ve been wanting to take a live figure drawing class since I met my husband 13 years ago. I love drawing and want the full immersive experience of studying anatomy/light/dimension/shading/movement and I know it is entirely different than trying to copy a picture. I told my husband I found a drop in class in Chicago and to my dismay he completely shocked me when he started freaking out because I’m going “to look a naked body” and “it’s no different than going to a strip club.”
+Like what am I even supposed to say to that? I’m completely baffled and anyone who knows art knows a class like this is a fundamental part of it. 
+Can anyone share some wisdom to help broaden his perspective on this. I never in a million years would have expected a response like this and I’m stuck between being annoyed af and just laughing at him. </t>
+  </si>
+  <si>
+    <t>Education/Art School</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Husband jealous of live figure drawing class Hello fellow artists! I’ve been wanting to take a live figure drawing class since I met my husband 13 years ago. I love drawing and want the full immersive experience of studying anatomy/light/dimension/shading/movement and I know it is entirely different than trying to copy a picture. I told my husband I found a drop in class in Chicago and to my dismay he completely shocked me when he started freaking out because I’m going “to look a naked body” and “it’s no different than going to a strip club.”
+Like what am I even supposed to say to that? I’m completely baffled and anyone who knows art knows a class like this is a fundamental part of it. 
+Can anyone share some wisdom to help broaden his perspective on this. I never in a million years would have expected a response like this and I’m stuck between being annoyed af and just laughing at him. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.reddit.com/r/ArtistLounge/comments/1fbppeo/husband_jealous_of_live_figure_drawing_class/ Hello fellow artists! I’ve been wanting to take a live figure drawing class since I met my husband 13 years ago. I love drawing and want the full immersive experience of studying anatomy/light/dimension/shading/movement and I know it is entirely different than trying to copy a picture. I told my husband I found a drop in class in Chicago and to my dismay he completely shocked me when he started freaking out because I’m going “to look a naked body” and “it’s no different than going to a strip club.”
+Like what am I even supposed to say to that? I’m completely baffled and anyone who knows art knows a class like this is a fundamental part of it. 
+Can anyone share some wisdom to help broaden his perspective on this. I never in a million years would have expected a response like this and I’m stuck between being annoyed af and just laughing at him. </t>
+  </si>
+  <si>
+    <t>The author has a strong interest and desire to improve in art.</t>
+  </si>
+  <si>
+    <t>The author has a passion for drawing but faces relationship obstacles.</t>
+  </si>
+  <si>
+    <t>1fc8n0a</t>
+  </si>
+  <si>
+    <t>WrightingCommittee</t>
+  </si>
+  <si>
+    <t>Understand that most of the advice you get on this subreddit is from male 18-29 redditors</t>
+  </si>
+  <si>
+    <t>Because reddit is a male-dominated platform, i have noticed many comments on subreddits about reading and writing that are very critical of authors and books who write for primarily female audiences. The typical redditor would have you believe that series like A Court of Thorns and Roses, or Twilight, are just poorly written garbage, while Project Hail Mary and Dune are peak literature. 
+If you are at all serious about your writing, please understand that you are not getting anywhere close to real-world market opinion when discussing these subjects on reddit. You are doing yourself a great disservice as a writer if you intentionally avoid books outside reddits demographic that are otherwise massively popular.
+A Court of Thorns and Roses is meant for primarily young adult women who like bad boys, who want to feel desired by powerful and handsome men, and who want to get a bit horned up as it is obviously written for the female gaze, while going on an escapist adventure with light worldbuilding. It should not be a surprise to you that the vast majority of redditors do not fall into this category and thus will tell you how bad it is. Meanwhile you have Project Hail Mary which has been suggested to the point of absurdity on this site, a book which exists in a genre dominated by male readers, and which is compararively very light on character drama and emotionality. Yet, in the real world, ACOTAR  has seen massively more success than PHM. 
+I have been bouncing back and forth a lot between more redditor suggested books like Dune, Hyperion, PHM, All Quiet on the Western Front, Blood Meridian, and books recommended to me by girls i know in real life like ACOTAR, Invisible Life of Addie LaRue, A Touch of Darkness, If We Were Villains, and Twilight, and i can say with 100% certainty that both sets of books taught me equal amounts of lessons in the craft of writing.
+If you are looking to get published, you really owe it to yourself to research the types of books that are popular, even if they are outside your preferred genres, because i guarantee your writing will improve by reading them and analyzing why they work and sell EVEN IF you think they are "bad".</t>
+  </si>
+  <si>
+    <t>Understand that most of the advice you get on this subreddit is from male 18-29 redditors Because reddit is a male-dominated platform, i have noticed many comments on subreddits about reading and writing that are very critical of authors and books who write for primarily female audiences. The typical redditor would have you believe that series like A Court of Thorns and Roses, or Twilight, are just poorly written garbage, while Project Hail Mary and Dune are peak literature. 
+If you are at all serious about your writing, please understand that you are not getting anywhere close to real-world market opinion when discussing these subjects on reddit. You are doing yourself a great disservice as a writer if you intentionally avoid books outside reddits demographic that are otherwise massively popular.
+A Court of Thorns and Roses is meant for primarily young adult women who like bad boys, who want to feel desired by powerful and handsome men, and who want to get a bit horned up as it is obviously written for the female gaze, while going on an escapist adventure with light worldbuilding. It should not be a surprise to you that the vast majority of redditors do not fall into this category and thus will tell you how bad it is. Meanwhile you have Project Hail Mary which has been suggested to the point of absurdity on this site, a book which exists in a genre dominated by male readers, and which is compararively very light on character drama and emotionality. Yet, in the real world, ACOTAR  has seen massively more success than PHM. 
+I have been bouncing back and forth a lot between more redditor suggested books like Dune, Hyperion, PHM, All Quiet on the Western Front, Blood Meridian, and books recommended to me by girls i know in real life like ACOTAR, Invisible Life of Addie LaRue, A Touch of Darkness, If We Were Villains, and Twilight, and i can say with 100% certainty that both sets of books taught me equal amounts of lessons in the craft of writing.
+If you are looking to get published, you really owe it to yourself to research the types of books that are popular, even if they are outside your preferred genres, because i guarantee your writing will improve by reading them and analyzing why they work and sell EVEN IF you think they are "bad".</t>
+  </si>
+  <si>
+    <t>Author reads widely, learns from different genres and shares insights.</t>
+  </si>
+  <si>
+    <t>The author discusses reading experiences, not creation difficulty.</t>
+  </si>
+  <si>
+    <t>1fs8umy</t>
+  </si>
+  <si>
+    <t>FeelingReflection906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A lot of the times the people that trash on formal art education just aren't meant for it. </t>
+  </si>
+  <si>
+    <t>It could just be me, but I feel like the existence of art schools are more for people who want to get their foot in the art industry. If you plan to just do commissions, and if especially you are just a hobbyist then obviously you won't like it. 
+This is not to say you need it in order to get into the industry, you obviously don't but it definitely makes it easier. 
+I feel like it's really just for those who want to pursue art in the industry both seriously and professionally. 
+Especially since you'll have people complain about professors not letting them just draw anime girls like... I'm sorry but why are you even there if all you want to do is draw anime girls?? It's fine if there are just things you prefer but I don't get people who get upset when their professors want them to draw realism and portraits. 
+And I feel like those who do complain about it are usually not the people art schools are for. If you want to draw the way you want, and solely learn to draw the way you want and if you don't plan in working in any place like say, Disney or the likes then you're just better off being self taught. But that doesn't mean art schools are useless or harmful (though some CAN be), it just means it's not the thing you need and that's actually okay.</t>
+  </si>
+  <si>
+    <t>A lot of the times the people that trash on formal art education just aren't meant for it.  It could just be me, but I feel like the existence of art schools are more for people who want to get their foot in the art industry. If you plan to just do commissions, and if especially you are just a hobbyist then obviously you won't like it. 
+This is not to say you need it in order to get into the industry, you obviously don't but it definitely makes it easier. 
+I feel like it's really just for those who want to pursue art in the industry both seriously and professionally. 
+Especially since you'll have people complain about professors not letting them just draw anime girls like... I'm sorry but why are you even there if all you want to do is draw anime girls?? It's fine if there are just things you prefer but I don't get people who get upset when their professors want them to draw realism and portraits. 
+And I feel like those who do complain about it are usually not the people art schools are for. If you want to draw the way you want, and solely learn to draw the way you want and if you don't plan in working in any place like say, Disney or the likes then you're just better off being self taught. But that doesn't mean art schools are useless or harmful (though some CAN be), it just means it's not the thing you need and that's actually okay.</t>
+  </si>
+  <si>
+    <t>https://www.reddit.com/r/ArtistLounge/comments/1fs8umy/a_lot_of_the_times_the_people_that_trash_on/ It could just be me, but I feel like the existence of art schools are more for people who want to get their foot in the art industry. If you plan to just do commissions, and if especially you are just a hobbyist then obviously you won't like it. 
+This is not to say you need it in order to get into the industry, you obviously don't but it definitely makes it easier. 
+I feel like it's really just for those who want to pursue art in the industry both seriously and professionally. 
+Especially since you'll have people complain about professors not letting them just draw anime girls like... I'm sorry but why are you even there if all you want to do is draw anime girls?? It's fine if there are just things you prefer but I don't get people who get upset when their professors want them to draw realism and portraits. 
+And I feel like those who do complain about it are usually not the people art schools are for. If you want to draw the way you want, and solely learn to draw the way you want and if you don't plan in working in any place like say, Disney or the likes then you're just better off being self taught. But that doesn't mean art schools are useless or harmful (though some CAN be), it just means it's not the thing you need and that's actually okay.</t>
+  </si>
+  <si>
+    <t>Author seems to have a mature understanding of the art industry.</t>
+  </si>
+  <si>
+    <t>Author discusses art creation from an educational perspective, not personal experience.</t>
+  </si>
+  <si>
+    <t>1ff70i6</t>
+  </si>
+  <si>
+    <t>FrigThisMrLahey</t>
+  </si>
+  <si>
+    <t>Please help me; is it as bad as I think it is??</t>
+  </si>
+  <si>
+    <t>I’ve already invested like 20 hours into this painting.. I just realized as I took a step back finally that the lower jaw is huge &amp; it looks like he’s got a massive under bite.
+I know I should paint it black &amp; redo the lower jaw but shit it took me so long to get it right 
+- is it super noticeable?? Should I change it? Have you ever noticed something off with your paintings and decided not to fix it; did you regret it ? Did you come to terms with it &amp; come to like it?
+(Im by no means professional - just started finally figuring out how to do it properly so please don’t judge my painting too harshly thanks)</t>
+  </si>
+  <si>
+    <t>Please help me; is it as bad as I think it is?? I’ve already invested like 20 hours into this painting.. I just realized as I took a step back finally that the lower jaw is huge &amp; it looks like he’s got a massive under bite.
+I know I should paint it black &amp; redo the lower jaw but shit it took me so long to get it right 
+- is it super noticeable?? Should I change it? Have you ever noticed something off with your paintings and decided not to fix it; did you regret it ? Did you come to terms with it &amp; come to like it?
+(Im by no means professional - just started finally figuring out how to do it properly so please don’t judge my painting too harshly thanks)</t>
+  </si>
+  <si>
+    <t>https://i.redd.it/9vtqdg38peod1.jpeg I’ve already invested like 20 hours into this painting.. I just realized as I took a step back finally that the lower jaw is huge &amp; it looks like he’s got a massive under bite.
+I know I should paint it black &amp; redo the lower jaw but shit it took me so long to get it right 
+- is it super noticeable?? Should I change it? Have you ever noticed something off with your paintings and decided not to fix it; did you regret it ? Did you come to terms with it &amp; come to like it?
+(Im by no means professional - just started finally figuring out how to do it properly so please don’t judge my painting too harshly thanks)</t>
+  </si>
+  <si>
+    <t>The author is questioning, learning and investing significant time in their art.</t>
+  </si>
+  <si>
+    <t>Author expresses frustration and self-doubt in their creation process.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1713,13 +3294,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1757,7 +3346,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1791,6 +3380,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1825,9 +3415,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2000,14 +3591,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2060,7 +3653,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -2080,7 +3673,7 @@
         <v>5</v>
       </c>
       <c r="H2" s="2">
-        <v>43598.74762731481</v>
+        <v>43598.747627314813</v>
       </c>
       <c r="I2" t="s">
         <v>241</v>
@@ -2092,7 +3685,7 @@
         <v>291</v>
       </c>
       <c r="L2" s="2">
-        <v>43673.89284722223</v>
+        <v>43673.892847222232</v>
       </c>
       <c r="M2" t="s">
         <v>341</v>
@@ -2110,7 +3703,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -2130,7 +3723,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="2">
-        <v>45485.30944444444</v>
+        <v>45485.309444444443</v>
       </c>
       <c r="I3" t="s">
         <v>242</v>
@@ -2142,7 +3735,7 @@
         <v>292</v>
       </c>
       <c r="L3" s="2">
-        <v>45486.43081018519</v>
+        <v>45486.430810185193</v>
       </c>
       <c r="M3" t="s">
         <v>341</v>
@@ -2160,7 +3753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -2180,7 +3773,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="2">
-        <v>44082.42541666667</v>
+        <v>44082.425416666672</v>
       </c>
       <c r="I4" t="s">
         <v>243</v>
@@ -2192,7 +3785,7 @@
         <v>293</v>
       </c>
       <c r="L4" s="2">
-        <v>44156.20454861111</v>
+        <v>44156.204548611109</v>
       </c>
       <c r="M4" t="s">
         <v>341</v>
@@ -2210,7 +3803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -2230,7 +3823,7 @@
         <v>2887</v>
       </c>
       <c r="H5" s="2">
-        <v>44202.95978009259</v>
+        <v>44202.959780092591</v>
       </c>
       <c r="I5" t="s">
         <v>244</v>
@@ -2242,7 +3835,7 @@
         <v>294</v>
       </c>
       <c r="L5" s="2">
-        <v>44203.18368055556</v>
+        <v>44203.183680555558</v>
       </c>
       <c r="M5" t="s">
         <v>341</v>
@@ -2260,7 +3853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -2283,7 +3876,7 @@
         <v>1282</v>
       </c>
       <c r="H6" s="2">
-        <v>45392.64616898148</v>
+        <v>45392.646168981482</v>
       </c>
       <c r="I6" t="s">
         <v>245</v>
@@ -2295,7 +3888,7 @@
         <v>295</v>
       </c>
       <c r="L6" s="2">
-        <v>45426.36930555556</v>
+        <v>45426.369305555563</v>
       </c>
       <c r="M6" t="s">
         <v>341</v>
@@ -2313,7 +3906,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -2336,7 +3929,7 @@
         <v>5</v>
       </c>
       <c r="H7" s="2">
-        <v>43112.63719907407</v>
+        <v>43112.637199074074</v>
       </c>
       <c r="I7" t="s">
         <v>246</v>
@@ -2348,7 +3941,7 @@
         <v>296</v>
       </c>
       <c r="L7" s="2">
-        <v>43205.89011574074</v>
+        <v>43205.890115740738</v>
       </c>
       <c r="M7" t="s">
         <v>341</v>
@@ -2366,7 +3959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -2386,7 +3979,7 @@
         <v>8</v>
       </c>
       <c r="H8" s="2">
-        <v>44185.78650462963</v>
+        <v>44185.786504629628</v>
       </c>
       <c r="I8" t="s">
         <v>247</v>
@@ -2398,7 +3991,7 @@
         <v>297</v>
       </c>
       <c r="L8" s="2">
-        <v>44227.26446759259</v>
+        <v>44227.264467592591</v>
       </c>
       <c r="M8" t="s">
         <v>342</v>
@@ -2416,7 +4009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -2439,7 +4032,7 @@
         <v>4</v>
       </c>
       <c r="H9" s="2">
-        <v>44808.68305555556</v>
+        <v>44808.683055555557</v>
       </c>
       <c r="I9" t="s">
         <v>248</v>
@@ -2451,7 +4044,7 @@
         <v>298</v>
       </c>
       <c r="L9" s="2">
-        <v>44891.83980324074</v>
+        <v>44891.839803240742</v>
       </c>
       <c r="M9" t="s">
         <v>341</v>
@@ -2469,7 +4062,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -2489,7 +4082,7 @@
         <v>238</v>
       </c>
       <c r="H10" s="2">
-        <v>44886.01465277778</v>
+        <v>44886.014652777783</v>
       </c>
       <c r="I10" t="s">
         <v>249</v>
@@ -2501,7 +4094,7 @@
         <v>299</v>
       </c>
       <c r="L10" s="2">
-        <v>44886.7625</v>
+        <v>44886.762499999997</v>
       </c>
       <c r="M10" t="s">
         <v>341</v>
@@ -2519,7 +4112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -2542,7 +4135,7 @@
         <v>1</v>
       </c>
       <c r="H11" s="2">
-        <v>44236.32122685185</v>
+        <v>44236.321226851847</v>
       </c>
       <c r="I11" t="s">
         <v>250</v>
@@ -2554,7 +4147,7 @@
         <v>300</v>
       </c>
       <c r="L11" s="2">
-        <v>44238.20126157408</v>
+        <v>44238.201261574082</v>
       </c>
       <c r="M11" t="s">
         <v>341</v>
@@ -2572,7 +4165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -2595,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="H12" s="2">
-        <v>44193.18734953704</v>
+        <v>44193.187349537038</v>
       </c>
       <c r="I12" t="s">
         <v>251</v>
@@ -2607,7 +4200,7 @@
         <v>301</v>
       </c>
       <c r="L12" s="2">
-        <v>44283.7765162037</v>
+        <v>44283.776516203703</v>
       </c>
       <c r="M12" t="s">
         <v>341</v>
@@ -2625,7 +4218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -2648,7 +4241,7 @@
         <v>55</v>
       </c>
       <c r="H13" s="2">
-        <v>45241.65127314815</v>
+        <v>45241.651273148149</v>
       </c>
       <c r="I13" t="s">
         <v>252</v>
@@ -2678,7 +4271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -2710,7 +4303,7 @@
         <v>303</v>
       </c>
       <c r="L14" s="2">
-        <v>43276.08077546296</v>
+        <v>43276.080775462957</v>
       </c>
       <c r="M14" t="s">
         <v>341</v>
@@ -2728,7 +4321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -2751,7 +4344,7 @@
         <v>7</v>
       </c>
       <c r="H15" s="2">
-        <v>44567.76980324074</v>
+        <v>44567.769803240742</v>
       </c>
       <c r="I15" t="s">
         <v>254</v>
@@ -2763,7 +4356,7 @@
         <v>304</v>
       </c>
       <c r="L15" s="2">
-        <v>44578.73054398148</v>
+        <v>44578.730543981481</v>
       </c>
       <c r="M15" t="s">
         <v>341</v>
@@ -2781,7 +4374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -2804,7 +4397,7 @@
         <v>140</v>
       </c>
       <c r="H16" s="2">
-        <v>44682.42883101852</v>
+        <v>44682.428831018522</v>
       </c>
       <c r="I16" t="s">
         <v>255</v>
@@ -2816,7 +4409,7 @@
         <v>305</v>
       </c>
       <c r="L16" s="2">
-        <v>44711.76993055556</v>
+        <v>44711.769930555558</v>
       </c>
       <c r="M16" t="s">
         <v>341</v>
@@ -2834,7 +4427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -2854,7 +4447,7 @@
         <v>33</v>
       </c>
       <c r="H17" s="2">
-        <v>44883.98849537037</v>
+        <v>44883.988495370373</v>
       </c>
       <c r="I17" t="s">
         <v>256</v>
@@ -2884,7 +4477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -2904,7 +4497,7 @@
         <v>8</v>
       </c>
       <c r="H18" s="2">
-        <v>43950.88461805556</v>
+        <v>43950.884618055563</v>
       </c>
       <c r="I18" t="s">
         <v>257</v>
@@ -2916,7 +4509,7 @@
         <v>307</v>
       </c>
       <c r="L18" s="2">
-        <v>43959.73515046296</v>
+        <v>43959.735150462962</v>
       </c>
       <c r="M18" t="s">
         <v>341</v>
@@ -2934,7 +4527,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>34</v>
       </c>
@@ -2957,7 +4550,7 @@
         <v>6</v>
       </c>
       <c r="H19" s="2">
-        <v>44148.98756944444</v>
+        <v>44148.987569444442</v>
       </c>
       <c r="I19" t="s">
         <v>258</v>
@@ -2987,7 +4580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>35</v>
       </c>
@@ -3010,7 +4603,7 @@
         <v>3</v>
       </c>
       <c r="H20" s="2">
-        <v>43667.28362268519</v>
+        <v>43667.283622685187</v>
       </c>
       <c r="I20" t="s">
         <v>259</v>
@@ -3022,7 +4615,7 @@
         <v>309</v>
       </c>
       <c r="L20" s="2">
-        <v>43763.10706018518</v>
+        <v>43763.107060185182</v>
       </c>
       <c r="M20" t="s">
         <v>341</v>
@@ -3040,7 +4633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>36</v>
       </c>
@@ -3060,7 +4653,7 @@
         <v>5</v>
       </c>
       <c r="H21" s="2">
-        <v>43266.14358796296</v>
+        <v>43266.143587962957</v>
       </c>
       <c r="I21" t="s">
         <v>260</v>
@@ -3072,7 +4665,7 @@
         <v>310</v>
       </c>
       <c r="L21" s="2">
-        <v>43270.09670138889</v>
+        <v>43270.096701388888</v>
       </c>
       <c r="M21" t="s">
         <v>341</v>
@@ -3090,7 +4683,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>37</v>
       </c>
@@ -3113,7 +4706,7 @@
         <v>1</v>
       </c>
       <c r="H22" s="2">
-        <v>44556.02092592593</v>
+        <v>44556.020925925928</v>
       </c>
       <c r="I22" t="s">
         <v>261</v>
@@ -3125,7 +4718,7 @@
         <v>311</v>
       </c>
       <c r="L22" s="2">
-        <v>44722.69481481481</v>
+        <v>44722.694814814808</v>
       </c>
       <c r="M22" t="s">
         <v>341</v>
@@ -3143,7 +4736,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>38</v>
       </c>
@@ -3166,7 +4759,7 @@
         <v>378</v>
       </c>
       <c r="H23" s="2">
-        <v>44298.57693287037</v>
+        <v>44298.576932870368</v>
       </c>
       <c r="I23" t="s">
         <v>262</v>
@@ -3178,7 +4771,7 @@
         <v>312</v>
       </c>
       <c r="L23" s="2">
-        <v>44300.87430555555</v>
+        <v>44300.874305555553</v>
       </c>
       <c r="M23" t="s">
         <v>341</v>
@@ -3196,7 +4789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>39</v>
       </c>
@@ -3216,7 +4809,7 @@
         <v>136</v>
       </c>
       <c r="H24" s="2">
-        <v>43949.91488425926</v>
+        <v>43949.914884259262</v>
       </c>
       <c r="I24" t="s">
         <v>263</v>
@@ -3228,7 +4821,7 @@
         <v>313</v>
       </c>
       <c r="L24" s="2">
-        <v>43965.1156712963</v>
+        <v>43965.115671296298</v>
       </c>
       <c r="M24" t="s">
         <v>341</v>
@@ -3246,7 +4839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>40</v>
       </c>
@@ -3266,7 +4859,7 @@
         <v>29</v>
       </c>
       <c r="H25" s="2">
-        <v>45456.81170138889</v>
+        <v>45456.811701388891</v>
       </c>
       <c r="I25" t="s">
         <v>264</v>
@@ -3278,7 +4871,7 @@
         <v>314</v>
       </c>
       <c r="L25" s="2">
-        <v>45519.81149305555</v>
+        <v>45519.811493055553</v>
       </c>
       <c r="M25" t="s">
         <v>341</v>
@@ -3296,7 +4889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>41</v>
       </c>
@@ -3316,7 +4909,7 @@
         <v>14</v>
       </c>
       <c r="H26" s="2">
-        <v>45260.83104166666</v>
+        <v>45260.831041666657</v>
       </c>
       <c r="I26" t="s">
         <v>265</v>
@@ -3328,7 +4921,7 @@
         <v>315</v>
       </c>
       <c r="L26" s="2">
-        <v>45261.71721064814</v>
+        <v>45261.717210648138</v>
       </c>
       <c r="M26" t="s">
         <v>341</v>
@@ -3346,7 +4939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>42</v>
       </c>
@@ -3366,7 +4959,7 @@
         <v>3</v>
       </c>
       <c r="H27" s="2">
-        <v>43165.12895833333</v>
+        <v>43165.128958333327</v>
       </c>
       <c r="I27" t="s">
         <v>266</v>
@@ -3396,7 +4989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>43</v>
       </c>
@@ -3428,7 +5021,7 @@
         <v>317</v>
       </c>
       <c r="L28" s="2">
-        <v>44043.76524305555</v>
+        <v>44043.765243055554</v>
       </c>
       <c r="M28" t="s">
         <v>341</v>
@@ -3446,7 +5039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>44</v>
       </c>
@@ -3466,7 +5059,7 @@
         <v>2</v>
       </c>
       <c r="H29" s="2">
-        <v>44467.51112268519</v>
+        <v>44467.511122685188</v>
       </c>
       <c r="I29" t="s">
         <v>268</v>
@@ -3478,7 +5071,7 @@
         <v>318</v>
       </c>
       <c r="L29" s="2">
-        <v>44567.52324074074</v>
+        <v>44567.523240740738</v>
       </c>
       <c r="M29" t="s">
         <v>342</v>
@@ -3496,7 +5089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>45</v>
       </c>
@@ -3516,7 +5109,7 @@
         <v>5</v>
       </c>
       <c r="H30" s="2">
-        <v>44385.1825925926</v>
+        <v>44385.182592592602</v>
       </c>
       <c r="I30" t="s">
         <v>269</v>
@@ -3528,7 +5121,7 @@
         <v>319</v>
       </c>
       <c r="L30" s="2">
-        <v>44435.14900462963</v>
+        <v>44435.149004629631</v>
       </c>
       <c r="M30" t="s">
         <v>342</v>
@@ -3546,7 +5139,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>46</v>
       </c>
@@ -3566,7 +5159,7 @@
         <v>8</v>
       </c>
       <c r="H31" s="2">
-        <v>43569.05975694444</v>
+        <v>43569.059756944444</v>
       </c>
       <c r="I31" t="s">
         <v>270</v>
@@ -3578,7 +5171,7 @@
         <v>320</v>
       </c>
       <c r="L31" s="2">
-        <v>43570.82856481482</v>
+        <v>43570.828564814823</v>
       </c>
       <c r="M31" t="s">
         <v>341</v>
@@ -3596,7 +5189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>47</v>
       </c>
@@ -3616,7 +5209,7 @@
         <v>5</v>
       </c>
       <c r="H32" s="2">
-        <v>43630.05085648148</v>
+        <v>43630.050856481481</v>
       </c>
       <c r="I32" t="s">
         <v>271</v>
@@ -3628,7 +5221,7 @@
         <v>321</v>
       </c>
       <c r="L32" s="2">
-        <v>43694.00913194445</v>
+        <v>43694.009131944447</v>
       </c>
       <c r="M32" t="s">
         <v>341</v>
@@ -3646,7 +5239,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:17">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>48</v>
       </c>
@@ -3669,7 +5262,7 @@
         <v>2</v>
       </c>
       <c r="H33" s="2">
-        <v>44121.95792824074</v>
+        <v>44121.957928240743</v>
       </c>
       <c r="I33" t="s">
         <v>272</v>
@@ -3681,7 +5274,7 @@
         <v>322</v>
       </c>
       <c r="L33" s="2">
-        <v>44190.95019675926</v>
+        <v>44190.950196759259</v>
       </c>
       <c r="M33" t="s">
         <v>341</v>
@@ -3699,7 +5292,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:17">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>49</v>
       </c>
@@ -3719,7 +5312,7 @@
         <v>1</v>
       </c>
       <c r="H34" s="2">
-        <v>43935.60289351852</v>
+        <v>43935.602893518517</v>
       </c>
       <c r="I34" t="s">
         <v>273</v>
@@ -3749,7 +5342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:17">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>50</v>
       </c>
@@ -3772,7 +5365,7 @@
         <v>16</v>
       </c>
       <c r="H35" s="2">
-        <v>43685.30559027778</v>
+        <v>43685.305590277778</v>
       </c>
       <c r="I35" t="s">
         <v>274</v>
@@ -3784,7 +5377,7 @@
         <v>324</v>
       </c>
       <c r="L35" s="2">
-        <v>43685.29597222222</v>
+        <v>43685.295972222222</v>
       </c>
       <c r="M35" t="s">
         <v>341</v>
@@ -3802,7 +5395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:17">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>51</v>
       </c>
@@ -3822,7 +5415,7 @@
         <v>6</v>
       </c>
       <c r="H36" s="2">
-        <v>44078.57140046296</v>
+        <v>44078.571400462963</v>
       </c>
       <c r="I36" t="s">
         <v>275</v>
@@ -3834,7 +5427,7 @@
         <v>325</v>
       </c>
       <c r="L36" s="2">
-        <v>44101.6456712963</v>
+        <v>44101.645671296297</v>
       </c>
       <c r="M36" t="s">
         <v>341</v>
@@ -3852,7 +5445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:17">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>52</v>
       </c>
@@ -3875,7 +5468,7 @@
         <v>1</v>
       </c>
       <c r="H37" s="2">
-        <v>43609.11046296296</v>
+        <v>43609.110462962963</v>
       </c>
       <c r="I37" t="s">
         <v>276</v>
@@ -3887,7 +5480,7 @@
         <v>326</v>
       </c>
       <c r="L37" s="2">
-        <v>43679.05184027777</v>
+        <v>43679.051840277767</v>
       </c>
       <c r="M37" t="s">
         <v>341</v>
@@ -3905,7 +5498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:17">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>53</v>
       </c>
@@ -3925,7 +5518,7 @@
         <v>82</v>
       </c>
       <c r="H38" s="2">
-        <v>45243.59322916667</v>
+        <v>45243.593229166669</v>
       </c>
       <c r="I38" t="s">
         <v>277</v>
@@ -3937,7 +5530,7 @@
         <v>327</v>
       </c>
       <c r="L38" s="2">
-        <v>45245.79929398148</v>
+        <v>45245.799293981479</v>
       </c>
       <c r="M38" t="s">
         <v>341</v>
@@ -3955,7 +5548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:17">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>54</v>
       </c>
@@ -3975,7 +5568,7 @@
         <v>8</v>
       </c>
       <c r="H39" s="2">
-        <v>44151.10179398148</v>
+        <v>44151.101793981477</v>
       </c>
       <c r="I39" t="s">
         <v>278</v>
@@ -3987,7 +5580,7 @@
         <v>328</v>
       </c>
       <c r="L39" s="2">
-        <v>44271.14511574074</v>
+        <v>44271.145115740743</v>
       </c>
       <c r="M39" t="s">
         <v>341</v>
@@ -4005,7 +5598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:17">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>55</v>
       </c>
@@ -4025,7 +5618,7 @@
         <v>3</v>
       </c>
       <c r="H40" s="2">
-        <v>43529.58634259259</v>
+        <v>43529.586342592593</v>
       </c>
       <c r="I40" t="s">
         <v>279</v>
@@ -4037,7 +5630,7 @@
         <v>329</v>
       </c>
       <c r="L40" s="2">
-        <v>43571.70659722222</v>
+        <v>43571.706597222219</v>
       </c>
       <c r="M40" t="s">
         <v>341</v>
@@ -4055,7 +5648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:17">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>56</v>
       </c>
@@ -4075,7 +5668,7 @@
         <v>76</v>
       </c>
       <c r="H41" s="2">
-        <v>45165.53828703704</v>
+        <v>45165.538287037038</v>
       </c>
       <c r="I41" t="s">
         <v>280</v>
@@ -4087,7 +5680,7 @@
         <v>330</v>
       </c>
       <c r="L41" s="2">
-        <v>45310.90594907408</v>
+        <v>45310.905949074076</v>
       </c>
       <c r="M41" t="s">
         <v>341</v>
@@ -4105,7 +5698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:17">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>57</v>
       </c>
@@ -4128,7 +5721,7 @@
         <v>70</v>
       </c>
       <c r="H42" s="2">
-        <v>45624.01952546297</v>
+        <v>45624.019525462973</v>
       </c>
       <c r="I42" t="s">
         <v>281</v>
@@ -4140,7 +5733,7 @@
         <v>331</v>
       </c>
       <c r="L42" s="2">
-        <v>45624.69743055556</v>
+        <v>45624.697430555563</v>
       </c>
       <c r="M42" t="s">
         <v>341</v>
@@ -4158,7 +5751,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="1:17">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>58</v>
       </c>
@@ -4181,7 +5774,7 @@
         <v>2</v>
       </c>
       <c r="H43" s="2">
-        <v>43399.36596064815</v>
+        <v>43399.365960648152</v>
       </c>
       <c r="I43" t="s">
         <v>282</v>
@@ -4193,7 +5786,7 @@
         <v>332</v>
       </c>
       <c r="L43" s="2">
-        <v>43424.97469907408</v>
+        <v>43424.974699074082</v>
       </c>
       <c r="M43" t="s">
         <v>341</v>
@@ -4211,7 +5804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:17">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>59</v>
       </c>
@@ -4234,7 +5827,7 @@
         <v>1</v>
       </c>
       <c r="H44" s="2">
-        <v>44256.90020833333</v>
+        <v>44256.900208333333</v>
       </c>
       <c r="I44" t="s">
         <v>283</v>
@@ -4246,7 +5839,7 @@
         <v>333</v>
       </c>
       <c r="L44" s="2">
-        <v>44348.67297453704</v>
+        <v>44348.672974537039</v>
       </c>
       <c r="M44" t="s">
         <v>343</v>
@@ -4264,7 +5857,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:17">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>60</v>
       </c>
@@ -4284,7 +5877,7 @@
         <v>2</v>
       </c>
       <c r="H45" s="2">
-        <v>44403.84967592593</v>
+        <v>44403.849675925929</v>
       </c>
       <c r="I45" t="s">
         <v>284</v>
@@ -4296,7 +5889,7 @@
         <v>334</v>
       </c>
       <c r="L45" s="2">
-        <v>44406.67216435185</v>
+        <v>44406.672164351847</v>
       </c>
       <c r="M45" t="s">
         <v>343</v>
@@ -4314,7 +5907,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:17">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>61</v>
       </c>
@@ -4334,7 +5927,7 @@
         <v>5</v>
       </c>
       <c r="H46" s="2">
-        <v>44533.81570601852</v>
+        <v>44533.815706018519</v>
       </c>
       <c r="I46" t="s">
         <v>285</v>
@@ -4346,7 +5939,7 @@
         <v>335</v>
       </c>
       <c r="L46" s="2">
-        <v>44534.90491898148</v>
+        <v>44534.904918981483</v>
       </c>
       <c r="M46" t="s">
         <v>341</v>
@@ -4364,7 +5957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:17">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>62</v>
       </c>
@@ -4387,7 +5980,7 @@
         <v>1176</v>
       </c>
       <c r="H47" s="2">
-        <v>44427.74645833333</v>
+        <v>44427.746458333328</v>
       </c>
       <c r="I47" t="s">
         <v>286</v>
@@ -4399,7 +5992,7 @@
         <v>336</v>
       </c>
       <c r="L47" s="2">
-        <v>44431.68815972222</v>
+        <v>44431.688159722216</v>
       </c>
       <c r="M47" t="s">
         <v>342</v>
@@ -4417,7 +6010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:17">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>63</v>
       </c>
@@ -4437,7 +6030,7 @@
         <v>5</v>
       </c>
       <c r="H48" s="2">
-        <v>45031.48873842593</v>
+        <v>45031.488738425927</v>
       </c>
       <c r="I48" t="s">
         <v>287</v>
@@ -4449,7 +6042,7 @@
         <v>337</v>
       </c>
       <c r="L48" s="2">
-        <v>45131.6415162037</v>
+        <v>45131.641516203701</v>
       </c>
       <c r="M48" t="s">
         <v>341</v>
@@ -4467,7 +6060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:17">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>64</v>
       </c>
@@ -4487,7 +6080,7 @@
         <v>1</v>
       </c>
       <c r="H49" s="2">
-        <v>43468.78237268519</v>
+        <v>43468.782372685193</v>
       </c>
       <c r="I49" t="s">
         <v>288</v>
@@ -4499,7 +6092,7 @@
         <v>338</v>
       </c>
       <c r="L49" s="2">
-        <v>43617.76356481481</v>
+        <v>43617.763564814813</v>
       </c>
       <c r="M49" t="s">
         <v>341</v>
@@ -4517,7 +6110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:17">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>65</v>
       </c>
@@ -4537,7 +6130,7 @@
         <v>3</v>
       </c>
       <c r="H50" s="2">
-        <v>45009.64496527778</v>
+        <v>45009.644965277781</v>
       </c>
       <c r="I50" t="s">
         <v>289</v>
@@ -4549,7 +6142,7 @@
         <v>339</v>
       </c>
       <c r="L50" s="2">
-        <v>45010.70489583333</v>
+        <v>45010.704895833333</v>
       </c>
       <c r="M50" t="s">
         <v>341</v>
@@ -4567,7 +6160,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:17">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>66</v>
       </c>
@@ -4587,7 +6180,7 @@
         <v>226</v>
       </c>
       <c r="H51" s="2">
-        <v>45341.64465277778</v>
+        <v>45341.644652777781</v>
       </c>
       <c r="I51" t="s">
         <v>290</v>
@@ -4599,7 +6192,7 @@
         <v>340</v>
       </c>
       <c r="L51" s="2">
-        <v>45373.0049537037</v>
+        <v>45373.004953703698</v>
       </c>
       <c r="M51" t="s">
         <v>341</v>
@@ -4619,57 +6212,2493 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K2" r:id="rId1"/>
-    <hyperlink ref="K3" r:id="rId2"/>
-    <hyperlink ref="K4" r:id="rId3"/>
-    <hyperlink ref="K5" r:id="rId4"/>
-    <hyperlink ref="K6" r:id="rId5"/>
-    <hyperlink ref="K7" r:id="rId6"/>
-    <hyperlink ref="K8" r:id="rId7"/>
-    <hyperlink ref="K9" r:id="rId8"/>
-    <hyperlink ref="K10" r:id="rId9"/>
-    <hyperlink ref="D11" r:id="rId10"/>
-    <hyperlink ref="K11" r:id="rId11"/>
-    <hyperlink ref="K12" r:id="rId12"/>
-    <hyperlink ref="K13" r:id="rId13"/>
-    <hyperlink ref="K14" r:id="rId14"/>
-    <hyperlink ref="K15" r:id="rId15"/>
-    <hyperlink ref="K16" r:id="rId16"/>
-    <hyperlink ref="K17" r:id="rId17"/>
-    <hyperlink ref="K18" r:id="rId18"/>
-    <hyperlink ref="K19" r:id="rId19"/>
-    <hyperlink ref="K20" r:id="rId20"/>
-    <hyperlink ref="K21" r:id="rId21"/>
-    <hyperlink ref="K22" r:id="rId22"/>
-    <hyperlink ref="K23" r:id="rId23"/>
-    <hyperlink ref="K24" r:id="rId24"/>
-    <hyperlink ref="K25" r:id="rId25"/>
-    <hyperlink ref="K26" r:id="rId26"/>
-    <hyperlink ref="K27" r:id="rId27"/>
-    <hyperlink ref="K28" r:id="rId28"/>
-    <hyperlink ref="K29" r:id="rId29"/>
-    <hyperlink ref="K30" r:id="rId30"/>
-    <hyperlink ref="K31" r:id="rId31"/>
-    <hyperlink ref="K32" r:id="rId32"/>
-    <hyperlink ref="K33" r:id="rId33"/>
-    <hyperlink ref="K34" r:id="rId34"/>
-    <hyperlink ref="K35" r:id="rId35"/>
-    <hyperlink ref="K36" r:id="rId36"/>
-    <hyperlink ref="K37" r:id="rId37"/>
-    <hyperlink ref="K38" r:id="rId38"/>
-    <hyperlink ref="K39" r:id="rId39"/>
-    <hyperlink ref="K40" r:id="rId40"/>
-    <hyperlink ref="K41" r:id="rId41"/>
-    <hyperlink ref="K42" r:id="rId42"/>
-    <hyperlink ref="K43" r:id="rId43"/>
-    <hyperlink ref="K44" r:id="rId44"/>
-    <hyperlink ref="K45" r:id="rId45"/>
-    <hyperlink ref="K46" r:id="rId46"/>
-    <hyperlink ref="K47" r:id="rId47"/>
-    <hyperlink ref="K48" r:id="rId48"/>
-    <hyperlink ref="K49" r:id="rId49"/>
-    <hyperlink ref="K50" r:id="rId50"/>
-    <hyperlink ref="K51" r:id="rId51"/>
+    <hyperlink ref="K2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="K3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="K4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="K5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="K6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="K7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="K8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="K9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="K10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="D11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="K11" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="K12" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="K13" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="K14" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="K15" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="K16" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="K17" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="K18" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="K19" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="K20" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="K21" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="K22" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="K23" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="K24" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="K25" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="K26" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="K27" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="K28" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="K29" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="K30" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="K31" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="K32" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="K33" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="K34" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="K35" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="K36" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="K37" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="K38" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="K39" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="K40" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="K41" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="K42" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="K43" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="K44" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="K45" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="K46" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="K47" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="K48" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="K49" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="K50" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="K51" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B626FD5-7B1A-4C9D-B88E-0CF869A916D2}">
+  <dimension ref="A1:P51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P2" sqref="A2:P51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="14" max="14" width="24.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>448</v>
+      </c>
+      <c r="B2" t="s">
+        <v>449</v>
+      </c>
+      <c r="C2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D2" t="s">
+        <v>450</v>
+      </c>
+      <c r="E2" t="s">
+        <v>451</v>
+      </c>
+      <c r="F2" t="s">
+        <v>452</v>
+      </c>
+      <c r="G2">
+        <v>137</v>
+      </c>
+      <c r="H2" s="2">
+        <v>45551.402581018519</v>
+      </c>
+      <c r="I2" t="s">
+        <v>453</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="K2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L2" t="s">
+        <v>341</v>
+      </c>
+      <c r="M2" t="s">
+        <v>455</v>
+      </c>
+      <c r="N2" t="s">
+        <v>395</v>
+      </c>
+      <c r="O2" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>457</v>
+      </c>
+      <c r="B3" t="s">
+        <v>458</v>
+      </c>
+      <c r="C3" t="s">
+        <v>231</v>
+      </c>
+      <c r="D3" t="s">
+        <v>459</v>
+      </c>
+      <c r="E3" t="s">
+        <v>460</v>
+      </c>
+      <c r="F3" t="s">
+        <v>218</v>
+      </c>
+      <c r="G3">
+        <v>1189</v>
+      </c>
+      <c r="H3" s="2">
+        <v>45498.776817129627</v>
+      </c>
+      <c r="I3" t="s">
+        <v>461</v>
+      </c>
+      <c r="K3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L3" t="s">
+        <v>341</v>
+      </c>
+      <c r="M3" t="s">
+        <v>462</v>
+      </c>
+      <c r="N3" t="s">
+        <v>394</v>
+      </c>
+      <c r="O3" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>464</v>
+      </c>
+      <c r="B4" t="s">
+        <v>465</v>
+      </c>
+      <c r="C4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D4" t="s">
+        <v>466</v>
+      </c>
+      <c r="E4" t="s">
+        <v>467</v>
+      </c>
+      <c r="F4" t="s">
+        <v>468</v>
+      </c>
+      <c r="G4">
+        <v>499</v>
+      </c>
+      <c r="H4" s="2">
+        <v>45339.827488425923</v>
+      </c>
+      <c r="I4" t="s">
+        <v>469</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="K4" t="b">
+        <v>0</v>
+      </c>
+      <c r="L4" t="s">
+        <v>343</v>
+      </c>
+      <c r="M4" t="s">
+        <v>471</v>
+      </c>
+      <c r="N4" t="s">
+        <v>396</v>
+      </c>
+      <c r="O4" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>473</v>
+      </c>
+      <c r="B5" t="s">
+        <v>474</v>
+      </c>
+      <c r="C5" t="s">
+        <v>230</v>
+      </c>
+      <c r="D5" t="s">
+        <v>475</v>
+      </c>
+      <c r="E5" t="s">
+        <v>476</v>
+      </c>
+      <c r="F5" t="s">
+        <v>477</v>
+      </c>
+      <c r="G5">
+        <v>130</v>
+      </c>
+      <c r="H5" s="2">
+        <v>45531.524409722217</v>
+      </c>
+      <c r="I5" t="s">
+        <v>478</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="K5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L5" t="s">
+        <v>341</v>
+      </c>
+      <c r="M5" t="s">
+        <v>480</v>
+      </c>
+      <c r="N5" t="s">
+        <v>396</v>
+      </c>
+      <c r="O5" t="s">
+        <v>481</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>482</v>
+      </c>
+      <c r="B6" t="s">
+        <v>483</v>
+      </c>
+      <c r="C6" t="s">
+        <v>230</v>
+      </c>
+      <c r="D6" t="s">
+        <v>484</v>
+      </c>
+      <c r="E6" t="s">
+        <v>485</v>
+      </c>
+      <c r="F6" t="s">
+        <v>486</v>
+      </c>
+      <c r="G6">
+        <v>153</v>
+      </c>
+      <c r="H6" s="2">
+        <v>45546.046724537038</v>
+      </c>
+      <c r="I6" t="s">
+        <v>487</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="K6" t="b">
+        <v>0</v>
+      </c>
+      <c r="L6" t="s">
+        <v>341</v>
+      </c>
+      <c r="M6" t="s">
+        <v>489</v>
+      </c>
+      <c r="N6" t="s">
+        <v>396</v>
+      </c>
+      <c r="O6" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>491</v>
+      </c>
+      <c r="B7" t="s">
+        <v>492</v>
+      </c>
+      <c r="C7" t="s">
+        <v>235</v>
+      </c>
+      <c r="D7" t="s">
+        <v>493</v>
+      </c>
+      <c r="E7" t="s">
+        <v>494</v>
+      </c>
+      <c r="F7" t="s">
+        <v>222</v>
+      </c>
+      <c r="G7">
+        <v>3025</v>
+      </c>
+      <c r="H7" s="2">
+        <v>45553.352361111109</v>
+      </c>
+      <c r="I7" t="s">
+        <v>495</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="K7" t="b">
+        <v>0</v>
+      </c>
+      <c r="L7" t="s">
+        <v>341</v>
+      </c>
+      <c r="M7" t="s">
+        <v>497</v>
+      </c>
+      <c r="N7" t="s">
+        <v>394</v>
+      </c>
+      <c r="O7" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>499</v>
+      </c>
+      <c r="B8" t="s">
+        <v>500</v>
+      </c>
+      <c r="C8" t="s">
+        <v>239</v>
+      </c>
+      <c r="D8" t="s">
+        <v>501</v>
+      </c>
+      <c r="E8" t="s">
+        <v>502</v>
+      </c>
+      <c r="G8">
+        <v>5</v>
+      </c>
+      <c r="H8" s="2">
+        <v>45613.009166666663</v>
+      </c>
+      <c r="I8" t="s">
+        <v>503</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="K8" t="b">
+        <v>0</v>
+      </c>
+      <c r="L8" t="s">
+        <v>341</v>
+      </c>
+      <c r="M8" t="s">
+        <v>505</v>
+      </c>
+      <c r="N8" t="s">
+        <v>394</v>
+      </c>
+      <c r="O8" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>507</v>
+      </c>
+      <c r="B9" t="s">
+        <v>508</v>
+      </c>
+      <c r="C9" t="s">
+        <v>240</v>
+      </c>
+      <c r="D9" t="s">
+        <v>509</v>
+      </c>
+      <c r="E9" t="s">
+        <v>510</v>
+      </c>
+      <c r="G9">
+        <v>1978</v>
+      </c>
+      <c r="H9" s="2">
+        <v>45582.748784722222</v>
+      </c>
+      <c r="I9" t="s">
+        <v>511</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="K9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L9" t="s">
+        <v>341</v>
+      </c>
+      <c r="M9" t="s">
+        <v>513</v>
+      </c>
+      <c r="N9" t="s">
+        <v>394</v>
+      </c>
+      <c r="O9" t="s">
+        <v>514</v>
+      </c>
+      <c r="P9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>515</v>
+      </c>
+      <c r="B10" t="s">
+        <v>516</v>
+      </c>
+      <c r="C10" t="s">
+        <v>235</v>
+      </c>
+      <c r="D10" t="s">
+        <v>517</v>
+      </c>
+      <c r="E10" t="s">
+        <v>518</v>
+      </c>
+      <c r="F10" t="s">
+        <v>519</v>
+      </c>
+      <c r="G10">
+        <v>462</v>
+      </c>
+      <c r="H10" s="2">
+        <v>45602.263414351852</v>
+      </c>
+      <c r="I10" t="s">
+        <v>520</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="K10" t="b">
+        <v>0</v>
+      </c>
+      <c r="L10" t="s">
+        <v>342</v>
+      </c>
+      <c r="M10" t="s">
+        <v>522</v>
+      </c>
+      <c r="N10" t="s">
+        <v>396</v>
+      </c>
+      <c r="O10" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>524</v>
+      </c>
+      <c r="B11" t="s">
+        <v>525</v>
+      </c>
+      <c r="C11" t="s">
+        <v>239</v>
+      </c>
+      <c r="D11" t="s">
+        <v>526</v>
+      </c>
+      <c r="E11" t="s">
+        <v>527</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="H11" s="2">
+        <v>45449.623576388891</v>
+      </c>
+      <c r="I11" t="s">
+        <v>528</v>
+      </c>
+      <c r="K11" t="b">
+        <v>0</v>
+      </c>
+      <c r="L11" t="s">
+        <v>341</v>
+      </c>
+      <c r="M11" t="s">
+        <v>529</v>
+      </c>
+      <c r="N11" t="s">
+        <v>394</v>
+      </c>
+      <c r="O11" t="s">
+        <v>530</v>
+      </c>
+      <c r="P11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>531</v>
+      </c>
+      <c r="B12" t="s">
+        <v>532</v>
+      </c>
+      <c r="C12" t="s">
+        <v>232</v>
+      </c>
+      <c r="D12" t="s">
+        <v>533</v>
+      </c>
+      <c r="E12" t="s">
+        <v>534</v>
+      </c>
+      <c r="F12" t="s">
+        <v>535</v>
+      </c>
+      <c r="G12">
+        <v>272</v>
+      </c>
+      <c r="H12" s="2">
+        <v>45607.743993055563</v>
+      </c>
+      <c r="I12" t="s">
+        <v>536</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="K12" t="b">
+        <v>0</v>
+      </c>
+      <c r="L12" t="s">
+        <v>341</v>
+      </c>
+      <c r="M12" t="s">
+        <v>538</v>
+      </c>
+      <c r="N12" t="s">
+        <v>394</v>
+      </c>
+      <c r="O12" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>540</v>
+      </c>
+      <c r="B13" t="s">
+        <v>541</v>
+      </c>
+      <c r="C13" t="s">
+        <v>232</v>
+      </c>
+      <c r="D13" t="s">
+        <v>542</v>
+      </c>
+      <c r="E13" t="s">
+        <v>543</v>
+      </c>
+      <c r="G13">
+        <v>209</v>
+      </c>
+      <c r="H13" s="2">
+        <v>45606.386388888888</v>
+      </c>
+      <c r="I13" t="s">
+        <v>544</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="K13" t="b">
+        <v>0</v>
+      </c>
+      <c r="L13" t="s">
+        <v>341</v>
+      </c>
+      <c r="M13" t="s">
+        <v>546</v>
+      </c>
+      <c r="N13" t="s">
+        <v>395</v>
+      </c>
+      <c r="O13" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>548</v>
+      </c>
+      <c r="B14" t="s">
+        <v>549</v>
+      </c>
+      <c r="C14" t="s">
+        <v>230</v>
+      </c>
+      <c r="D14" t="s">
+        <v>550</v>
+      </c>
+      <c r="E14" t="s">
+        <v>551</v>
+      </c>
+      <c r="F14" t="s">
+        <v>452</v>
+      </c>
+      <c r="G14">
+        <v>161</v>
+      </c>
+      <c r="H14" s="2">
+        <v>45326.953715277778</v>
+      </c>
+      <c r="I14" t="s">
+        <v>552</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="K14" t="b">
+        <v>0</v>
+      </c>
+      <c r="L14" t="s">
+        <v>342</v>
+      </c>
+      <c r="M14" t="s">
+        <v>554</v>
+      </c>
+      <c r="N14" t="s">
+        <v>396</v>
+      </c>
+      <c r="O14" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>556</v>
+      </c>
+      <c r="B15" t="s">
+        <v>557</v>
+      </c>
+      <c r="C15" t="s">
+        <v>236</v>
+      </c>
+      <c r="D15" t="s">
+        <v>558</v>
+      </c>
+      <c r="E15" t="s">
+        <v>559</v>
+      </c>
+      <c r="F15" t="s">
+        <v>560</v>
+      </c>
+      <c r="G15">
+        <v>99</v>
+      </c>
+      <c r="H15" s="2">
+        <v>45352.667118055557</v>
+      </c>
+      <c r="I15" t="s">
+        <v>561</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="K15" t="b">
+        <v>0</v>
+      </c>
+      <c r="L15" t="s">
+        <v>341</v>
+      </c>
+      <c r="M15" t="s">
+        <v>563</v>
+      </c>
+      <c r="N15" t="s">
+        <v>394</v>
+      </c>
+      <c r="O15" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>565</v>
+      </c>
+      <c r="B16" t="s">
+        <v>566</v>
+      </c>
+      <c r="C16" t="s">
+        <v>235</v>
+      </c>
+      <c r="D16" t="s">
+        <v>567</v>
+      </c>
+      <c r="E16" t="s">
+        <v>568</v>
+      </c>
+      <c r="F16" t="s">
+        <v>225</v>
+      </c>
+      <c r="G16">
+        <v>521</v>
+      </c>
+      <c r="H16" s="2">
+        <v>45604.076701388891</v>
+      </c>
+      <c r="I16" t="s">
+        <v>569</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="K16" t="b">
+        <v>0</v>
+      </c>
+      <c r="L16" t="s">
+        <v>341</v>
+      </c>
+      <c r="M16" t="s">
+        <v>571</v>
+      </c>
+      <c r="N16" t="s">
+        <v>394</v>
+      </c>
+      <c r="O16" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>573</v>
+      </c>
+      <c r="B17" t="s">
+        <v>574</v>
+      </c>
+      <c r="C17" t="s">
+        <v>233</v>
+      </c>
+      <c r="D17" t="s">
+        <v>575</v>
+      </c>
+      <c r="E17" t="s">
+        <v>576</v>
+      </c>
+      <c r="F17" t="s">
+        <v>218</v>
+      </c>
+      <c r="G17">
+        <v>44</v>
+      </c>
+      <c r="H17" s="2">
+        <v>45577.239444444444</v>
+      </c>
+      <c r="I17" t="s">
+        <v>577</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="K17" t="b">
+        <v>0</v>
+      </c>
+      <c r="L17" t="s">
+        <v>341</v>
+      </c>
+      <c r="M17" t="s">
+        <v>579</v>
+      </c>
+      <c r="N17" t="s">
+        <v>394</v>
+      </c>
+      <c r="O17" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>581</v>
+      </c>
+      <c r="B18" t="s">
+        <v>582</v>
+      </c>
+      <c r="C18" t="s">
+        <v>228</v>
+      </c>
+      <c r="D18" t="s">
+        <v>583</v>
+      </c>
+      <c r="E18" t="s">
+        <v>584</v>
+      </c>
+      <c r="F18" t="s">
+        <v>585</v>
+      </c>
+      <c r="G18">
+        <v>3388</v>
+      </c>
+      <c r="H18" s="2">
+        <v>45626.675682870373</v>
+      </c>
+      <c r="I18" t="s">
+        <v>586</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="K18" t="b">
+        <v>0</v>
+      </c>
+      <c r="L18" t="s">
+        <v>341</v>
+      </c>
+      <c r="M18" t="s">
+        <v>588</v>
+      </c>
+      <c r="N18" t="s">
+        <v>394</v>
+      </c>
+      <c r="O18" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>590</v>
+      </c>
+      <c r="B19" t="s">
+        <v>591</v>
+      </c>
+      <c r="C19" t="s">
+        <v>230</v>
+      </c>
+      <c r="D19" t="s">
+        <v>592</v>
+      </c>
+      <c r="E19" t="s">
+        <v>593</v>
+      </c>
+      <c r="F19" t="s">
+        <v>452</v>
+      </c>
+      <c r="G19">
+        <v>690</v>
+      </c>
+      <c r="H19" s="2">
+        <v>45505.927685185183</v>
+      </c>
+      <c r="I19" t="s">
+        <v>594</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="K19" t="b">
+        <v>0</v>
+      </c>
+      <c r="L19" t="s">
+        <v>341</v>
+      </c>
+      <c r="M19" t="s">
+        <v>596</v>
+      </c>
+      <c r="N19" t="s">
+        <v>395</v>
+      </c>
+      <c r="O19" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>598</v>
+      </c>
+      <c r="B20" t="s">
+        <v>599</v>
+      </c>
+      <c r="C20" t="s">
+        <v>233</v>
+      </c>
+      <c r="D20" t="s">
+        <v>600</v>
+      </c>
+      <c r="E20" t="s">
+        <v>601</v>
+      </c>
+      <c r="F20" t="s">
+        <v>218</v>
+      </c>
+      <c r="G20">
+        <v>43</v>
+      </c>
+      <c r="H20" s="2">
+        <v>45319.508877314824</v>
+      </c>
+      <c r="I20" t="s">
+        <v>602</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="K20" t="b">
+        <v>0</v>
+      </c>
+      <c r="L20" t="s">
+        <v>343</v>
+      </c>
+      <c r="M20" t="s">
+        <v>604</v>
+      </c>
+      <c r="N20" t="s">
+        <v>394</v>
+      </c>
+      <c r="O20" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>606</v>
+      </c>
+      <c r="B21" t="s">
+        <v>607</v>
+      </c>
+      <c r="C21" t="s">
+        <v>239</v>
+      </c>
+      <c r="D21" t="s">
+        <v>608</v>
+      </c>
+      <c r="E21" t="s">
+        <v>609</v>
+      </c>
+      <c r="G21">
+        <v>2</v>
+      </c>
+      <c r="H21" s="2">
+        <v>45455.399664351848</v>
+      </c>
+      <c r="I21" t="s">
+        <v>610</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="K21" t="b">
+        <v>0</v>
+      </c>
+      <c r="L21" t="s">
+        <v>341</v>
+      </c>
+      <c r="M21" t="s">
+        <v>612</v>
+      </c>
+      <c r="N21" t="s">
+        <v>394</v>
+      </c>
+      <c r="O21" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>614</v>
+      </c>
+      <c r="B22" t="s">
+        <v>615</v>
+      </c>
+      <c r="C22" t="s">
+        <v>235</v>
+      </c>
+      <c r="D22" t="s">
+        <v>616</v>
+      </c>
+      <c r="E22" t="s">
+        <v>617</v>
+      </c>
+      <c r="F22" t="s">
+        <v>618</v>
+      </c>
+      <c r="G22">
+        <v>2055</v>
+      </c>
+      <c r="H22" s="2">
+        <v>45383.867719907408</v>
+      </c>
+      <c r="I22" t="s">
+        <v>619</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="K22" t="b">
+        <v>0</v>
+      </c>
+      <c r="L22" t="s">
+        <v>343</v>
+      </c>
+      <c r="M22" t="s">
+        <v>621</v>
+      </c>
+      <c r="N22" t="s">
+        <v>396</v>
+      </c>
+      <c r="O22" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>623</v>
+      </c>
+      <c r="B23" t="s">
+        <v>624</v>
+      </c>
+      <c r="C23" t="s">
+        <v>230</v>
+      </c>
+      <c r="D23" t="s">
+        <v>625</v>
+      </c>
+      <c r="E23" t="s">
+        <v>626</v>
+      </c>
+      <c r="F23" t="s">
+        <v>627</v>
+      </c>
+      <c r="G23">
+        <v>132</v>
+      </c>
+      <c r="H23" s="2">
+        <v>45510.872997685183</v>
+      </c>
+      <c r="I23" t="s">
+        <v>628</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="K23" t="b">
+        <v>0</v>
+      </c>
+      <c r="L23" t="s">
+        <v>341</v>
+      </c>
+      <c r="M23" t="s">
+        <v>630</v>
+      </c>
+      <c r="N23" t="s">
+        <v>395</v>
+      </c>
+      <c r="O23" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>632</v>
+      </c>
+      <c r="B24" t="s">
+        <v>633</v>
+      </c>
+      <c r="C24" t="s">
+        <v>235</v>
+      </c>
+      <c r="D24" t="s">
+        <v>634</v>
+      </c>
+      <c r="E24" t="s">
+        <v>635</v>
+      </c>
+      <c r="F24" t="s">
+        <v>222</v>
+      </c>
+      <c r="G24">
+        <v>446</v>
+      </c>
+      <c r="H24" s="2">
+        <v>45459.443749999999</v>
+      </c>
+      <c r="I24" t="s">
+        <v>636</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="K24" t="b">
+        <v>0</v>
+      </c>
+      <c r="L24" t="s">
+        <v>341</v>
+      </c>
+      <c r="M24" t="s">
+        <v>638</v>
+      </c>
+      <c r="N24" t="s">
+        <v>394</v>
+      </c>
+      <c r="O24" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>640</v>
+      </c>
+      <c r="B25" t="s">
+        <v>641</v>
+      </c>
+      <c r="C25" t="s">
+        <v>239</v>
+      </c>
+      <c r="D25" t="s">
+        <v>642</v>
+      </c>
+      <c r="E25" t="s">
+        <v>643</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25" s="2">
+        <v>45385.664340277777</v>
+      </c>
+      <c r="I25" t="s">
+        <v>644</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>645</v>
+      </c>
+      <c r="K25" t="b">
+        <v>0</v>
+      </c>
+      <c r="L25" t="s">
+        <v>341</v>
+      </c>
+      <c r="M25" t="s">
+        <v>646</v>
+      </c>
+      <c r="N25" t="s">
+        <v>396</v>
+      </c>
+      <c r="O25" t="s">
+        <v>647</v>
+      </c>
+      <c r="P25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>648</v>
+      </c>
+      <c r="B26" t="s">
+        <v>649</v>
+      </c>
+      <c r="C26" t="s">
+        <v>650</v>
+      </c>
+      <c r="D26" t="s">
+        <v>651</v>
+      </c>
+      <c r="E26" t="s">
+        <v>652</v>
+      </c>
+      <c r="F26" t="s">
+        <v>653</v>
+      </c>
+      <c r="G26">
+        <v>413</v>
+      </c>
+      <c r="H26" s="2">
+        <v>45605.341817129629</v>
+      </c>
+      <c r="I26" t="s">
+        <v>654</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="K26" t="b">
+        <v>0</v>
+      </c>
+      <c r="L26" t="s">
+        <v>342</v>
+      </c>
+      <c r="M26" t="s">
+        <v>656</v>
+      </c>
+      <c r="N26" t="s">
+        <v>396</v>
+      </c>
+      <c r="O26" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>658</v>
+      </c>
+      <c r="B27" t="s">
+        <v>659</v>
+      </c>
+      <c r="C27" t="s">
+        <v>228</v>
+      </c>
+      <c r="D27" t="s">
+        <v>660</v>
+      </c>
+      <c r="E27" t="s">
+        <v>661</v>
+      </c>
+      <c r="G27">
+        <v>6388</v>
+      </c>
+      <c r="H27" s="2">
+        <v>45618.787870370368</v>
+      </c>
+      <c r="I27" t="s">
+        <v>662</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="K27" t="b">
+        <v>0</v>
+      </c>
+      <c r="L27" t="s">
+        <v>341</v>
+      </c>
+      <c r="M27" t="s">
+        <v>664</v>
+      </c>
+      <c r="N27" t="s">
+        <v>395</v>
+      </c>
+      <c r="O27" t="s">
+        <v>665</v>
+      </c>
+      <c r="P27">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>666</v>
+      </c>
+      <c r="B28" t="s">
+        <v>667</v>
+      </c>
+      <c r="C28" t="s">
+        <v>230</v>
+      </c>
+      <c r="D28" t="s">
+        <v>668</v>
+      </c>
+      <c r="E28" t="s">
+        <v>669</v>
+      </c>
+      <c r="F28" t="s">
+        <v>452</v>
+      </c>
+      <c r="G28">
+        <v>274</v>
+      </c>
+      <c r="H28" s="2">
+        <v>45340.847233796303</v>
+      </c>
+      <c r="I28" t="s">
+        <v>670</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="K28" t="b">
+        <v>0</v>
+      </c>
+      <c r="L28" t="s">
+        <v>342</v>
+      </c>
+      <c r="M28" t="s">
+        <v>672</v>
+      </c>
+      <c r="N28" t="s">
+        <v>394</v>
+      </c>
+      <c r="O28" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>674</v>
+      </c>
+      <c r="B29" t="s">
+        <v>675</v>
+      </c>
+      <c r="C29" t="s">
+        <v>228</v>
+      </c>
+      <c r="D29" t="s">
+        <v>676</v>
+      </c>
+      <c r="E29" t="s">
+        <v>677</v>
+      </c>
+      <c r="F29" t="s">
+        <v>678</v>
+      </c>
+      <c r="G29">
+        <v>2393</v>
+      </c>
+      <c r="H29" s="2">
+        <v>45621.824340277781</v>
+      </c>
+      <c r="I29" t="s">
+        <v>679</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>680</v>
+      </c>
+      <c r="K29" t="b">
+        <v>0</v>
+      </c>
+      <c r="L29" t="s">
+        <v>341</v>
+      </c>
+      <c r="M29" t="s">
+        <v>681</v>
+      </c>
+      <c r="N29" t="s">
+        <v>395</v>
+      </c>
+      <c r="O29" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>683</v>
+      </c>
+      <c r="B30" t="s">
+        <v>684</v>
+      </c>
+      <c r="C30" t="s">
+        <v>230</v>
+      </c>
+      <c r="D30" t="s">
+        <v>685</v>
+      </c>
+      <c r="E30" t="s">
+        <v>686</v>
+      </c>
+      <c r="F30" t="s">
+        <v>687</v>
+      </c>
+      <c r="G30">
+        <v>2393</v>
+      </c>
+      <c r="H30" s="2">
+        <v>45592.12709490741</v>
+      </c>
+      <c r="I30" t="s">
+        <v>688</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="K30" t="b">
+        <v>0</v>
+      </c>
+      <c r="L30" t="s">
+        <v>341</v>
+      </c>
+      <c r="M30" t="s">
+        <v>690</v>
+      </c>
+      <c r="N30" t="s">
+        <v>394</v>
+      </c>
+      <c r="O30" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>692</v>
+      </c>
+      <c r="B31" t="s">
+        <v>693</v>
+      </c>
+      <c r="C31" t="s">
+        <v>235</v>
+      </c>
+      <c r="D31" t="s">
+        <v>694</v>
+      </c>
+      <c r="E31" t="s">
+        <v>695</v>
+      </c>
+      <c r="F31" t="s">
+        <v>696</v>
+      </c>
+      <c r="G31">
+        <v>1110</v>
+      </c>
+      <c r="H31" s="2">
+        <v>45567.072905092587</v>
+      </c>
+      <c r="I31" t="s">
+        <v>697</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>698</v>
+      </c>
+      <c r="K31" t="b">
+        <v>0</v>
+      </c>
+      <c r="L31" t="s">
+        <v>342</v>
+      </c>
+      <c r="M31" t="s">
+        <v>699</v>
+      </c>
+      <c r="N31" t="s">
+        <v>396</v>
+      </c>
+      <c r="O31" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>701</v>
+      </c>
+      <c r="B32" t="s">
+        <v>702</v>
+      </c>
+      <c r="C32" t="s">
+        <v>235</v>
+      </c>
+      <c r="D32" t="s">
+        <v>703</v>
+      </c>
+      <c r="E32" t="s">
+        <v>704</v>
+      </c>
+      <c r="F32" t="s">
+        <v>222</v>
+      </c>
+      <c r="G32">
+        <v>614</v>
+      </c>
+      <c r="H32" s="2">
+        <v>45554.734537037039</v>
+      </c>
+      <c r="I32" t="s">
+        <v>705</v>
+      </c>
+      <c r="K32" t="b">
+        <v>0</v>
+      </c>
+      <c r="L32" t="s">
+        <v>341</v>
+      </c>
+      <c r="M32" t="s">
+        <v>706</v>
+      </c>
+      <c r="N32" t="s">
+        <v>394</v>
+      </c>
+      <c r="O32" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>708</v>
+      </c>
+      <c r="B33" t="s">
+        <v>709</v>
+      </c>
+      <c r="C33" t="s">
+        <v>230</v>
+      </c>
+      <c r="D33" t="s">
+        <v>710</v>
+      </c>
+      <c r="E33" t="s">
+        <v>711</v>
+      </c>
+      <c r="F33" t="s">
+        <v>486</v>
+      </c>
+      <c r="G33">
+        <v>154</v>
+      </c>
+      <c r="H33" s="2">
+        <v>45355.03869212963</v>
+      </c>
+      <c r="I33" t="s">
+        <v>712</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="K33" t="b">
+        <v>0</v>
+      </c>
+      <c r="L33" t="s">
+        <v>341</v>
+      </c>
+      <c r="M33" t="s">
+        <v>714</v>
+      </c>
+      <c r="N33" t="s">
+        <v>395</v>
+      </c>
+      <c r="O33" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>716</v>
+      </c>
+      <c r="B34" t="s">
+        <v>717</v>
+      </c>
+      <c r="C34" t="s">
+        <v>240</v>
+      </c>
+      <c r="D34" t="s">
+        <v>718</v>
+      </c>
+      <c r="E34" t="s">
+        <v>719</v>
+      </c>
+      <c r="G34">
+        <v>1542</v>
+      </c>
+      <c r="H34" s="2">
+        <v>45590.540833333333</v>
+      </c>
+      <c r="I34" t="s">
+        <v>720</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>721</v>
+      </c>
+      <c r="K34" t="b">
+        <v>0</v>
+      </c>
+      <c r="L34" t="s">
+        <v>341</v>
+      </c>
+      <c r="M34" t="s">
+        <v>722</v>
+      </c>
+      <c r="N34" t="s">
+        <v>394</v>
+      </c>
+      <c r="O34" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>724</v>
+      </c>
+      <c r="B35" t="s">
+        <v>725</v>
+      </c>
+      <c r="C35" t="s">
+        <v>235</v>
+      </c>
+      <c r="D35" t="s">
+        <v>726</v>
+      </c>
+      <c r="E35" t="s">
+        <v>727</v>
+      </c>
+      <c r="F35" t="s">
+        <v>221</v>
+      </c>
+      <c r="G35">
+        <v>401</v>
+      </c>
+      <c r="H35" s="2">
+        <v>45567.646273148152</v>
+      </c>
+      <c r="I35" t="s">
+        <v>728</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>729</v>
+      </c>
+      <c r="K35" t="b">
+        <v>0</v>
+      </c>
+      <c r="L35" t="s">
+        <v>343</v>
+      </c>
+      <c r="M35" t="s">
+        <v>730</v>
+      </c>
+      <c r="N35" t="s">
+        <v>396</v>
+      </c>
+      <c r="O35" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>732</v>
+      </c>
+      <c r="B36" t="s">
+        <v>733</v>
+      </c>
+      <c r="C36" t="s">
+        <v>235</v>
+      </c>
+      <c r="D36" t="s">
+        <v>734</v>
+      </c>
+      <c r="E36" t="s">
+        <v>735</v>
+      </c>
+      <c r="F36" t="s">
+        <v>222</v>
+      </c>
+      <c r="G36">
+        <v>473</v>
+      </c>
+      <c r="H36" s="2">
+        <v>45538.460729166669</v>
+      </c>
+      <c r="I36" t="s">
+        <v>736</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>737</v>
+      </c>
+      <c r="K36" t="b">
+        <v>0</v>
+      </c>
+      <c r="L36" t="s">
+        <v>341</v>
+      </c>
+      <c r="M36" t="s">
+        <v>738</v>
+      </c>
+      <c r="N36" t="s">
+        <v>394</v>
+      </c>
+      <c r="O36" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>740</v>
+      </c>
+      <c r="B37" t="s">
+        <v>741</v>
+      </c>
+      <c r="C37" t="s">
+        <v>650</v>
+      </c>
+      <c r="D37" t="s">
+        <v>742</v>
+      </c>
+      <c r="E37" t="s">
+        <v>743</v>
+      </c>
+      <c r="F37" t="s">
+        <v>653</v>
+      </c>
+      <c r="G37">
+        <v>158</v>
+      </c>
+      <c r="H37" s="2">
+        <v>45617.820798611108</v>
+      </c>
+      <c r="I37" t="s">
+        <v>744</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>745</v>
+      </c>
+      <c r="K37" t="b">
+        <v>0</v>
+      </c>
+      <c r="L37" t="s">
+        <v>341</v>
+      </c>
+      <c r="M37" t="s">
+        <v>746</v>
+      </c>
+      <c r="N37" t="s">
+        <v>395</v>
+      </c>
+      <c r="O37" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>748</v>
+      </c>
+      <c r="B38" t="s">
+        <v>749</v>
+      </c>
+      <c r="C38" t="s">
+        <v>239</v>
+      </c>
+      <c r="D38" t="s">
+        <v>750</v>
+      </c>
+      <c r="E38" t="s">
+        <v>751</v>
+      </c>
+      <c r="G38">
+        <v>2</v>
+      </c>
+      <c r="H38" s="2">
+        <v>45574.124490740738</v>
+      </c>
+      <c r="I38" t="s">
+        <v>752</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>753</v>
+      </c>
+      <c r="K38" t="b">
+        <v>0</v>
+      </c>
+      <c r="L38" t="s">
+        <v>343</v>
+      </c>
+      <c r="M38" t="s">
+        <v>754</v>
+      </c>
+      <c r="N38" t="s">
+        <v>396</v>
+      </c>
+      <c r="O38" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>756</v>
+      </c>
+      <c r="B39" t="s">
+        <v>757</v>
+      </c>
+      <c r="C39" t="s">
+        <v>232</v>
+      </c>
+      <c r="D39" t="s">
+        <v>758</v>
+      </c>
+      <c r="E39" t="s">
+        <v>759</v>
+      </c>
+      <c r="G39">
+        <v>699</v>
+      </c>
+      <c r="H39" s="2">
+        <v>45539.092604166668</v>
+      </c>
+      <c r="I39" t="s">
+        <v>760</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>761</v>
+      </c>
+      <c r="K39" t="b">
+        <v>0</v>
+      </c>
+      <c r="L39" t="s">
+        <v>341</v>
+      </c>
+      <c r="M39" t="s">
+        <v>762</v>
+      </c>
+      <c r="N39" t="s">
+        <v>395</v>
+      </c>
+      <c r="O39" t="s">
+        <v>763</v>
+      </c>
+      <c r="P39">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>764</v>
+      </c>
+      <c r="B40" t="s">
+        <v>765</v>
+      </c>
+      <c r="C40" t="s">
+        <v>230</v>
+      </c>
+      <c r="D40" t="s">
+        <v>766</v>
+      </c>
+      <c r="E40" t="s">
+        <v>767</v>
+      </c>
+      <c r="F40" t="s">
+        <v>486</v>
+      </c>
+      <c r="G40">
+        <v>201</v>
+      </c>
+      <c r="H40" s="2">
+        <v>45583.065416666657</v>
+      </c>
+      <c r="I40" t="s">
+        <v>768</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>769</v>
+      </c>
+      <c r="K40" t="b">
+        <v>0</v>
+      </c>
+      <c r="L40" t="s">
+        <v>343</v>
+      </c>
+      <c r="M40" t="s">
+        <v>770</v>
+      </c>
+      <c r="N40" t="s">
+        <v>394</v>
+      </c>
+      <c r="O40" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>772</v>
+      </c>
+      <c r="B41" t="s">
+        <v>773</v>
+      </c>
+      <c r="C41" t="s">
+        <v>239</v>
+      </c>
+      <c r="D41" t="s">
+        <v>774</v>
+      </c>
+      <c r="E41" t="s">
+        <v>775</v>
+      </c>
+      <c r="G41">
+        <v>2</v>
+      </c>
+      <c r="H41" s="2">
+        <v>45531.983460648153</v>
+      </c>
+      <c r="I41" t="s">
+        <v>776</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>777</v>
+      </c>
+      <c r="K41" t="b">
+        <v>0</v>
+      </c>
+      <c r="L41" t="s">
+        <v>341</v>
+      </c>
+      <c r="M41" t="s">
+        <v>778</v>
+      </c>
+      <c r="N41" t="s">
+        <v>394</v>
+      </c>
+      <c r="O41" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>780</v>
+      </c>
+      <c r="B42" t="s">
+        <v>781</v>
+      </c>
+      <c r="C42" t="s">
+        <v>782</v>
+      </c>
+      <c r="D42" t="s">
+        <v>783</v>
+      </c>
+      <c r="E42" t="s">
+        <v>784</v>
+      </c>
+      <c r="F42" t="s">
+        <v>785</v>
+      </c>
+      <c r="G42">
+        <v>461</v>
+      </c>
+      <c r="H42" s="2">
+        <v>45553.401608796303</v>
+      </c>
+      <c r="I42" t="s">
+        <v>786</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>787</v>
+      </c>
+      <c r="K42" t="b">
+        <v>0</v>
+      </c>
+      <c r="L42" t="s">
+        <v>341</v>
+      </c>
+      <c r="M42" t="s">
+        <v>788</v>
+      </c>
+      <c r="N42" t="s">
+        <v>396</v>
+      </c>
+      <c r="O42" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>790</v>
+      </c>
+      <c r="B43" t="s">
+        <v>791</v>
+      </c>
+      <c r="C43" t="s">
+        <v>231</v>
+      </c>
+      <c r="D43" t="s">
+        <v>792</v>
+      </c>
+      <c r="E43" t="s">
+        <v>793</v>
+      </c>
+      <c r="G43">
+        <v>1521</v>
+      </c>
+      <c r="H43" s="2">
+        <v>45361.839861111112</v>
+      </c>
+      <c r="I43" t="s">
+        <v>794</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>795</v>
+      </c>
+      <c r="K43" t="b">
+        <v>0</v>
+      </c>
+      <c r="L43" t="s">
+        <v>341</v>
+      </c>
+      <c r="M43" t="s">
+        <v>796</v>
+      </c>
+      <c r="N43" t="s">
+        <v>394</v>
+      </c>
+      <c r="O43" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>798</v>
+      </c>
+      <c r="B44" t="s">
+        <v>799</v>
+      </c>
+      <c r="C44" t="s">
+        <v>650</v>
+      </c>
+      <c r="D44" t="s">
+        <v>800</v>
+      </c>
+      <c r="E44" t="s">
+        <v>801</v>
+      </c>
+      <c r="F44" t="s">
+        <v>653</v>
+      </c>
+      <c r="G44">
+        <v>156</v>
+      </c>
+      <c r="H44" s="2">
+        <v>45485.864189814813</v>
+      </c>
+      <c r="I44" t="s">
+        <v>802</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="K44" t="b">
+        <v>0</v>
+      </c>
+      <c r="L44" t="s">
+        <v>341</v>
+      </c>
+      <c r="M44" t="s">
+        <v>804</v>
+      </c>
+      <c r="N44" t="s">
+        <v>394</v>
+      </c>
+      <c r="O44" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>806</v>
+      </c>
+      <c r="B45" t="s">
+        <v>807</v>
+      </c>
+      <c r="C45" t="s">
+        <v>650</v>
+      </c>
+      <c r="D45" t="s">
+        <v>808</v>
+      </c>
+      <c r="E45" t="s">
+        <v>809</v>
+      </c>
+      <c r="F45" t="s">
+        <v>810</v>
+      </c>
+      <c r="G45">
+        <v>947</v>
+      </c>
+      <c r="H45" s="2">
+        <v>45387.504212962973</v>
+      </c>
+      <c r="I45" t="s">
+        <v>811</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>812</v>
+      </c>
+      <c r="K45" t="b">
+        <v>0</v>
+      </c>
+      <c r="L45" t="s">
+        <v>341</v>
+      </c>
+      <c r="M45" t="s">
+        <v>813</v>
+      </c>
+      <c r="N45" t="s">
+        <v>394</v>
+      </c>
+      <c r="O45" t="s">
+        <v>814</v>
+      </c>
+      <c r="P45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>815</v>
+      </c>
+      <c r="B46" t="s">
+        <v>816</v>
+      </c>
+      <c r="C46" t="s">
+        <v>233</v>
+      </c>
+      <c r="D46" t="s">
+        <v>817</v>
+      </c>
+      <c r="E46" t="s">
+        <v>818</v>
+      </c>
+      <c r="F46" t="s">
+        <v>218</v>
+      </c>
+      <c r="G46">
+        <v>43</v>
+      </c>
+      <c r="H46" s="2">
+        <v>45611.239814814813</v>
+      </c>
+      <c r="I46" t="s">
+        <v>819</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>820</v>
+      </c>
+      <c r="K46" t="b">
+        <v>0</v>
+      </c>
+      <c r="L46" t="s">
+        <v>341</v>
+      </c>
+      <c r="M46" t="s">
+        <v>821</v>
+      </c>
+      <c r="N46" t="s">
+        <v>394</v>
+      </c>
+      <c r="O46" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>823</v>
+      </c>
+      <c r="B47" t="s">
+        <v>824</v>
+      </c>
+      <c r="C47" t="s">
+        <v>650</v>
+      </c>
+      <c r="D47" t="s">
+        <v>825</v>
+      </c>
+      <c r="E47" t="s">
+        <v>826</v>
+      </c>
+      <c r="F47" t="s">
+        <v>810</v>
+      </c>
+      <c r="G47">
+        <v>909</v>
+      </c>
+      <c r="H47" s="2">
+        <v>45495.888715277782</v>
+      </c>
+      <c r="I47" t="s">
+        <v>827</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>828</v>
+      </c>
+      <c r="K47" t="b">
+        <v>0</v>
+      </c>
+      <c r="L47" t="s">
+        <v>341</v>
+      </c>
+      <c r="M47" t="s">
+        <v>829</v>
+      </c>
+      <c r="N47" t="s">
+        <v>395</v>
+      </c>
+      <c r="O47" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>831</v>
+      </c>
+      <c r="B48" t="s">
+        <v>832</v>
+      </c>
+      <c r="C48" t="s">
+        <v>230</v>
+      </c>
+      <c r="D48" t="s">
+        <v>833</v>
+      </c>
+      <c r="E48" t="s">
+        <v>834</v>
+      </c>
+      <c r="F48" t="s">
+        <v>835</v>
+      </c>
+      <c r="G48">
+        <v>595</v>
+      </c>
+      <c r="H48" s="2">
+        <v>45543.192013888889</v>
+      </c>
+      <c r="I48" t="s">
+        <v>836</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>837</v>
+      </c>
+      <c r="K48" t="b">
+        <v>0</v>
+      </c>
+      <c r="L48" t="s">
+        <v>341</v>
+      </c>
+      <c r="M48" t="s">
+        <v>838</v>
+      </c>
+      <c r="N48" t="s">
+        <v>396</v>
+      </c>
+      <c r="O48" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>840</v>
+      </c>
+      <c r="B49" t="s">
+        <v>841</v>
+      </c>
+      <c r="C49" t="s">
+        <v>231</v>
+      </c>
+      <c r="D49" t="s">
+        <v>842</v>
+      </c>
+      <c r="E49" t="s">
+        <v>843</v>
+      </c>
+      <c r="G49">
+        <v>4804</v>
+      </c>
+      <c r="H49" s="2">
+        <v>45543.889143518521</v>
+      </c>
+      <c r="I49" t="s">
+        <v>844</v>
+      </c>
+      <c r="K49" t="b">
+        <v>0</v>
+      </c>
+      <c r="L49" t="s">
+        <v>341</v>
+      </c>
+      <c r="M49" t="s">
+        <v>845</v>
+      </c>
+      <c r="N49" t="s">
+        <v>396</v>
+      </c>
+      <c r="O49" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>847</v>
+      </c>
+      <c r="B50" t="s">
+        <v>848</v>
+      </c>
+      <c r="C50" t="s">
+        <v>230</v>
+      </c>
+      <c r="D50" t="s">
+        <v>849</v>
+      </c>
+      <c r="E50" t="s">
+        <v>850</v>
+      </c>
+      <c r="F50" t="s">
+        <v>452</v>
+      </c>
+      <c r="G50">
+        <v>332</v>
+      </c>
+      <c r="H50" s="2">
+        <v>45564.701620370368</v>
+      </c>
+      <c r="I50" t="s">
+        <v>851</v>
+      </c>
+      <c r="J50" s="3" t="s">
+        <v>852</v>
+      </c>
+      <c r="K50" t="b">
+        <v>0</v>
+      </c>
+      <c r="L50" t="s">
+        <v>341</v>
+      </c>
+      <c r="M50" t="s">
+        <v>853</v>
+      </c>
+      <c r="N50" t="s">
+        <v>396</v>
+      </c>
+      <c r="O50" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>855</v>
+      </c>
+      <c r="B51" t="s">
+        <v>856</v>
+      </c>
+      <c r="C51" t="s">
+        <v>228</v>
+      </c>
+      <c r="D51" t="s">
+        <v>857</v>
+      </c>
+      <c r="E51" t="s">
+        <v>858</v>
+      </c>
+      <c r="F51" t="s">
+        <v>585</v>
+      </c>
+      <c r="G51">
+        <v>2618</v>
+      </c>
+      <c r="H51" s="2">
+        <v>45547.69321759259</v>
+      </c>
+      <c r="I51" t="s">
+        <v>859</v>
+      </c>
+      <c r="J51" s="3" t="s">
+        <v>860</v>
+      </c>
+      <c r="K51" t="b">
+        <v>0</v>
+      </c>
+      <c r="L51" t="s">
+        <v>341</v>
+      </c>
+      <c r="M51" t="s">
+        <v>861</v>
+      </c>
+      <c r="N51" t="s">
+        <v>394</v>
+      </c>
+      <c r="O51" t="s">
+        <v>862</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="J2" r:id="rId1" xr:uid="{312CF885-E5D2-4F0F-8FC8-B2DBEC8C32A1}"/>
+    <hyperlink ref="J4" r:id="rId2" location="x200B;_x000a__x000a_I'm%20extremely%20disappointed,%20what%20are%20your%20thoughts?_x000a__x000a_&amp;#x200B;" xr:uid="{FEC63E76-C839-4583-A4B7-DA2768EA9C17}"/>
+    <hyperlink ref="J5" r:id="rId3" xr:uid="{9885C8A7-F928-4120-8DE1-98E24415A8EC}"/>
+    <hyperlink ref="J6" r:id="rId4" xr:uid="{91A46667-A9E3-4FBC-838C-B59D6B145A11}"/>
+    <hyperlink ref="J7" r:id="rId5" xr:uid="{7A93517A-F13F-493A-9F44-463DDEE70119}"/>
+    <hyperlink ref="J8" r:id="rId6" xr:uid="{C901DCE4-CA1B-46C5-8D42-2E01897A92ED}"/>
+    <hyperlink ref="J9" r:id="rId7" xr:uid="{28E4829C-5937-4311-89DB-CDEE37552C91}"/>
+    <hyperlink ref="J10" r:id="rId8" xr:uid="{B0A4C4C0-AD75-49AA-A41E-C2D7A4C6D502}"/>
+    <hyperlink ref="J12" r:id="rId9" xr:uid="{B0C657F6-5587-42D5-96D0-68F521A79B01}"/>
+    <hyperlink ref="J13" r:id="rId10" xr:uid="{DB567ECC-7461-4B6B-9E40-8882ADAE5E8D}"/>
+    <hyperlink ref="J14" r:id="rId11" xr:uid="{69988F5B-1852-490E-81BB-461ACDF40CDD}"/>
+    <hyperlink ref="J15" r:id="rId12" xr:uid="{C32146DD-863A-42AF-ADE9-19E2C5A21BA2}"/>
+    <hyperlink ref="J16" r:id="rId13" xr:uid="{A5A94FFC-10DE-4630-8956-BBA99C94C679}"/>
+    <hyperlink ref="J17" r:id="rId14" xr:uid="{226520BE-8AFD-4978-8C3E-51CAFA9B588E}"/>
+    <hyperlink ref="J18" r:id="rId15" xr:uid="{726A694C-5C78-4133-BF46-F67F555FDEC0}"/>
+    <hyperlink ref="J19" r:id="rId16" xr:uid="{075A4408-0C66-4DAD-9795-4386F5D806DD}"/>
+    <hyperlink ref="J20" r:id="rId17" xr:uid="{FDD3D5B3-5725-4DE9-968A-072557820824}"/>
+    <hyperlink ref="J21" r:id="rId18" xr:uid="{7AD4799C-B51F-4D47-A1D5-8F92FFF4B781}"/>
+    <hyperlink ref="J22" r:id="rId19" xr:uid="{47771DB9-1458-408A-B5D6-710692ADE085}"/>
+    <hyperlink ref="J23" r:id="rId20" xr:uid="{BD3CA25C-2540-4FD7-9F6A-7489DC38DBF3}"/>
+    <hyperlink ref="J24" r:id="rId21" xr:uid="{16D62DE2-84B0-40CF-B32B-521BF55347BA}"/>
+    <hyperlink ref="J25" r:id="rId22" xr:uid="{6D4FBBB8-60A6-44D8-ABA4-D7CB7DF60E65}"/>
+    <hyperlink ref="J26" r:id="rId23" xr:uid="{ABABAC45-7FB0-47A8-9B48-21ACD20927CB}"/>
+    <hyperlink ref="J27" r:id="rId24" xr:uid="{B7B8ADA8-BECD-4C58-A18A-95CC3EAB2795}"/>
+    <hyperlink ref="J28" r:id="rId25" xr:uid="{35624661-535A-45D0-B0FA-7BC31EFB727F}"/>
+    <hyperlink ref="J29" r:id="rId26" xr:uid="{F40CB9C8-33FD-488C-8365-13D6E84709E8}"/>
+    <hyperlink ref="J30" r:id="rId27" xr:uid="{C6E42AB6-D39B-4EAC-B8DF-BFF072AB9B50}"/>
+    <hyperlink ref="J31" r:id="rId28" xr:uid="{FCA64204-97B7-4D12-913F-58F78BD0B79F}"/>
+    <hyperlink ref="J33" r:id="rId29" xr:uid="{033A69D1-64F7-41E2-8F1F-477973F6D01D}"/>
+    <hyperlink ref="J34" r:id="rId30" xr:uid="{143EF028-AEE4-4965-B569-DC7651C1503C}"/>
+    <hyperlink ref="J35" r:id="rId31" xr:uid="{B9C5CF7C-6267-41B7-BF6E-082BF550AF3E}"/>
+    <hyperlink ref="J36" r:id="rId32" xr:uid="{4B598DB6-E7E2-4BFB-B876-EE61DFE3BEBF}"/>
+    <hyperlink ref="J37" r:id="rId33" xr:uid="{39A106DB-3F74-42B4-8919-BD33EA8AAE7E}"/>
+    <hyperlink ref="J38" r:id="rId34" xr:uid="{2BBACCA2-9C20-4ACF-8C5E-948777DCF270}"/>
+    <hyperlink ref="J39" r:id="rId35" xr:uid="{3789D5FA-A0AF-4EC1-9554-C24B71F30FF7}"/>
+    <hyperlink ref="J40" r:id="rId36" xr:uid="{DAA9B1A9-FD73-470C-BC8E-19703BC92C49}"/>
+    <hyperlink ref="J41" r:id="rId37" xr:uid="{BD3309CB-3439-41CA-8D6D-096633CF79B2}"/>
+    <hyperlink ref="J42" r:id="rId38" xr:uid="{A4F0FA31-7567-4EB2-BD6F-CCACA36F9C15}"/>
+    <hyperlink ref="J43" r:id="rId39" xr:uid="{18A031AE-9AC7-472E-8F83-A23F1285AE79}"/>
+    <hyperlink ref="J44" r:id="rId40" xr:uid="{0D318820-D5E5-479B-BE50-FEADC3C059B0}"/>
+    <hyperlink ref="J45" r:id="rId41" xr:uid="{D538AB39-60E9-4D8E-B2BD-8AE59319ECF5}"/>
+    <hyperlink ref="J46" r:id="rId42" xr:uid="{22FB0892-C3EC-4937-8349-570219900FEA}"/>
+    <hyperlink ref="J47" r:id="rId43" xr:uid="{7D5D9842-FD71-4A44-AB77-E2D9B160BB06}"/>
+    <hyperlink ref="J48" r:id="rId44" xr:uid="{FAB2A439-433D-4D5C-B6D2-C8B65898CD6E}"/>
+    <hyperlink ref="J50" r:id="rId45" xr:uid="{B61B128F-762F-4BC9-B3D4-15886C904C45}"/>
+    <hyperlink ref="J51" r:id="rId46" xr:uid="{36C9B6DC-83E2-4CDC-8492-9FC8C59F7EA7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
